--- a/AllTime/ALLTIME Ranks through 2018.xlsx
+++ b/AllTime/ALLTIME Ranks through 2018.xlsx
@@ -817,9 +817,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -828,6 +825,9 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -6828,7 +6828,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tony-2018</c:v>
+                  <c:v>Jeff-2015</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6911,37 +6911,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>69.525074981237211</c:v>
+                  <c:v>73.315740528415617</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.880705426349778</c:v>
+                  <c:v>76.803515487789127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.623397281629977</c:v>
+                  <c:v>88.612487233196589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.629203113696079</c:v>
+                  <c:v>83.714265162522622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.961699915591232</c:v>
+                  <c:v>94.173098361299822</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.779920027210252</c:v>
+                  <c:v>84.567406073747094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73.937858393291648</c:v>
+                  <c:v>71.985656001533414</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.795703466117232</c:v>
+                  <c:v>67.228322743757289</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88.391675635038311</c:v>
+                  <c:v>68.828109891853302</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.69153310162153</c:v>
+                  <c:v>72.214017764586103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.914717839534347</c:v>
+                  <c:v>65.718175031880293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6962,7 +6962,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jeff-2015</c:v>
+                  <c:v>Galit-2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7045,37 +7045,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>73.315740528415617</c:v>
+                  <c:v>76.961964427267617</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.803515487789127</c:v>
+                  <c:v>90.744831926661334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.612487233196589</c:v>
+                  <c:v>77.025899335914914</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.714265162522622</c:v>
+                  <c:v>93.881136550201305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.173098361299822</c:v>
+                  <c:v>97.162957863596844</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.567406073747094</c:v>
+                  <c:v>78.328739015014079</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71.985656001533414</c:v>
+                  <c:v>78.315020367634261</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.228322743757289</c:v>
+                  <c:v>83.135689783957957</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68.828109891853302</c:v>
+                  <c:v>90.425026891449889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.214017764586103</c:v>
+                  <c:v>83.966370203788728</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65.718175031880293</c:v>
+                  <c:v>67.78880616063816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7096,7 +7096,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Galit-2018</c:v>
+                  <c:v>Caryn-2015</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7179,37 +7179,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>76.961964427267617</c:v>
+                  <c:v>89.306261001156599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.744831926661334</c:v>
+                  <c:v>89.530260384729488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.025899335914914</c:v>
+                  <c:v>95.208885653999587</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.881136550201305</c:v>
+                  <c:v>93.431280144257357</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.162957863596844</c:v>
+                  <c:v>95.385376923460825</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.328739015014079</c:v>
+                  <c:v>88.964689800711895</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.315020367634261</c:v>
+                  <c:v>93.161471498305232</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83.135689783957957</c:v>
+                  <c:v>81.033692870809659</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.425026891449889</c:v>
+                  <c:v>78.776325037892661</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83.966370203788728</c:v>
+                  <c:v>72.108011250784259</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.78880616063816</c:v>
+                  <c:v>60.443296218208744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7230,7 +7230,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Caryn-2015</c:v>
+                  <c:v>MattP-2015</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7316,37 +7316,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>89.306261001156599</c:v>
+                  <c:v>46.352370559099327</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.530260384729488</c:v>
+                  <c:v>50.794055793501371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.208885653999587</c:v>
+                  <c:v>65.486661120805721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.431280144257357</c:v>
+                  <c:v>63.11520079399132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.385376923460825</c:v>
+                  <c:v>70.646725181082644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.964689800711895</c:v>
+                  <c:v>65.447746884147435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.161471498305232</c:v>
+                  <c:v>75.078917988585602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.033692870809659</c:v>
+                  <c:v>69.73170088478949</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78.776325037892661</c:v>
+                  <c:v>65.674892757664097</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.108011250784259</c:v>
+                  <c:v>61.896987613452595</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.443296218208744</c:v>
+                  <c:v>69.73495154243858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7367,7 +7367,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MattP-2015</c:v>
+                  <c:v>Tony-2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7453,37 +7453,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>46.352370559099327</c:v>
+                  <c:v>69.525074981237211</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.794055793501371</c:v>
+                  <c:v>80.880705426349778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.486661120805721</c:v>
+                  <c:v>64.623397281629977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.11520079399132</c:v>
+                  <c:v>64.629203113696079</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.646725181082644</c:v>
+                  <c:v>60.961699915591232</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.447746884147435</c:v>
+                  <c:v>62.779920027210252</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.078917988585602</c:v>
+                  <c:v>73.937858393291648</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69.73170088478949</c:v>
+                  <c:v>80.795703466117232</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.674892757664097</c:v>
+                  <c:v>88.391675635038311</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61.896987613452595</c:v>
+                  <c:v>86.69153310162153</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69.73495154243858</c:v>
+                  <c:v>72.914717839534347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7778,7 +7778,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Caryn-2014</c:v>
+                  <c:v>Rohit-2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7864,37 +7864,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>92.574933889359485</c:v>
+                  <c:v>59.808993240381639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.667627208832172</c:v>
+                  <c:v>60.756363974885744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.488031710798353</c:v>
+                  <c:v>54.720607733268174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.086466230062001</c:v>
+                  <c:v>64.796562118111439</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.221493771524493</c:v>
+                  <c:v>74.472765357234394</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.205804607603483</c:v>
+                  <c:v>75.591840688310882</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.0428444592944</c:v>
+                  <c:v>66.815357441074397</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88.133769404205822</c:v>
+                  <c:v>69.507614618389823</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88.458370593981741</c:v>
+                  <c:v>71.296110451963301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70.892195072592045</c:v>
+                  <c:v>68.661267519715167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.056833647840932</c:v>
+                  <c:v>70.670492792338507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7915,7 +7915,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Will-2015</c:v>
+                  <c:v>Caryn-2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8001,37 +8001,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>49.145104101095853</c:v>
+                  <c:v>92.574933889359485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.537949783379858</c:v>
+                  <c:v>96.667627208832172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.468534031230767</c:v>
+                  <c:v>85.488031710798353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.78737792320338</c:v>
+                  <c:v>79.086466230062001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.512300343256477</c:v>
+                  <c:v>80.221493771524493</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.512627150068852</c:v>
+                  <c:v>90.205804607603483</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77.71926764514744</c:v>
+                  <c:v>86.0428444592944</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76.749262147435019</c:v>
+                  <c:v>88.133769404205822</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.211771405344052</c:v>
+                  <c:v>88.458370593981741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55.651412031369659</c:v>
+                  <c:v>70.892195072592045</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62.925551095767531</c:v>
+                  <c:v>74.056833647840932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8052,7 +8052,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rohit-2018</c:v>
+                  <c:v>Will-2015</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8135,37 +8135,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>59.808993240381639</c:v>
+                  <c:v>49.145104101095853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.756363974885744</c:v>
+                  <c:v>60.537949783379858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.720607733268174</c:v>
+                  <c:v>45.468534031230767</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.796562118111439</c:v>
+                  <c:v>59.78737792320338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.472765357234394</c:v>
+                  <c:v>63.512300343256477</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.591840688310882</c:v>
+                  <c:v>70.512627150068852</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.815357441074397</c:v>
+                  <c:v>77.71926764514744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69.507614618389823</c:v>
+                  <c:v>76.749262147435019</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.296110451963301</c:v>
+                  <c:v>51.211771405344052</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.661267519715167</c:v>
+                  <c:v>55.651412031369659</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.670492792338507</c:v>
+                  <c:v>62.925551095767531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12434,8 +12434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12468,18 +12468,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="48" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
       <c r="M1" s="43"/>
@@ -12490,10 +12490,10 @@
       <c r="R1" s="43"/>
       <c r="S1" s="43"/>
       <c r="T1" s="43"/>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="V1" s="63"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="44" t="str">
         <f>DATA!AC2</f>
         <v>Team</v>
@@ -12508,10 +12508,10 @@
       </c>
       <c r="Z1" s="43"/>
       <c r="AA1" s="43"/>
-      <c r="AB1" s="63" t="s">
+      <c r="AB1" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="AC1" s="63"/>
+      <c r="AC1" s="66"/>
       <c r="AD1" s="46" t="s">
         <v>96</v>
       </c>
@@ -12614,7 +12614,7 @@
       </c>
       <c r="AE2" s="10">
         <f>DATA!BW2</f>
-        <v>8.77</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="AF2" s="10">
         <f>DATA!BX2</f>
@@ -12622,10 +12622,10 @@
       </c>
       <c r="AG2" s="10">
         <f>DATA!BY2</f>
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="AH2" s="11" t="str">
-        <f>IF(DATA!CA2&gt;0,DATA!CA2&amp;" SACKOS","")</f>
+        <f>IF(DATA!CA2&lt;0,-DATA!CA2&amp;" SACKOS","")</f>
         <v/>
       </c>
       <c r="AI2" s="12"/>
@@ -12726,7 +12726,7 @@
         <v>1.18</v>
       </c>
       <c r="AH3" s="20" t="str">
-        <f>IF(DATA!CA3&gt;0,DATA!CA3&amp;" SACKOS","")</f>
+        <f>IF(DATA!CA3&lt;0,-DATA!CA3&amp;" SACKOS","")</f>
         <v/>
       </c>
       <c r="AI3" s="16"/>
@@ -12845,7 +12845,7 @@
         <v>1.22</v>
       </c>
       <c r="AH4" s="26" t="str">
-        <f>IF(DATA!CA4&gt;0,DATA!CA4&amp;" SACKOS","")</f>
+        <f>IF(DATA!CA4&lt;0,-DATA!CA4&amp;" SACKOS","")</f>
         <v/>
       </c>
       <c r="AI4" s="9"/>
@@ -12973,7 +12973,7 @@
         <v>0.72</v>
       </c>
       <c r="AH5" s="20" t="str">
-        <f>IF(DATA!CA5&gt;0,DATA!CA5&amp;" SACKOS","")</f>
+        <f>IF(DATA!CA5&lt;0,-DATA!CA5&amp;" SACKOS","")</f>
         <v/>
       </c>
       <c r="AI5" s="29"/>
@@ -13116,7 +13116,7 @@
         <v>1.57</v>
       </c>
       <c r="AH6" s="26" t="str">
-        <f>IF(DATA!CA6&gt;0,DATA!CA6&amp;" SACKOS","")</f>
+        <f>IF(DATA!CA6&lt;0,-DATA!CA6&amp;" SACKOS","")</f>
         <v/>
       </c>
       <c r="AI6" s="12"/>
@@ -13248,7 +13248,7 @@
       </c>
       <c r="AE7" s="35">
         <f>DATA!BW7</f>
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AF7" s="35">
         <f>DATA!BX7</f>
@@ -13256,11 +13256,11 @@
       </c>
       <c r="AG7" s="35">
         <f>DATA!BY7</f>
-        <v>0.55000000000000004</v>
+        <v>0.53</v>
       </c>
       <c r="AH7" s="20" t="str">
-        <f>IF(DATA!CA7&gt;0,DATA!CA7&amp;" SACKOS","")</f>
-        <v/>
+        <f>IF(DATA!CA7&lt;0,-DATA!CA7&amp;" SACKOS","")</f>
+        <v>1 SACKOS</v>
       </c>
       <c r="AI7" s="16"/>
       <c r="AJ7" s="3"/>
@@ -13402,7 +13402,7 @@
         <v>1.64</v>
       </c>
       <c r="AH8" s="26" t="str">
-        <f>IF(DATA!CA8&gt;0,DATA!CA8&amp;" SACKOS","")</f>
+        <f>IF(DATA!CA8&lt;0,-DATA!CA8&amp;" SACKOS","")</f>
         <v/>
       </c>
       <c r="AI8" s="9"/>
@@ -13545,7 +13545,7 @@
         <v>0.71</v>
       </c>
       <c r="AH9" s="20" t="str">
-        <f>IF(DATA!CA9&gt;0,DATA!CA9&amp;" SACKOS","")</f>
+        <f>IF(DATA!CA9&lt;0,-DATA!CA9&amp;" SACKOS","")</f>
         <v/>
       </c>
       <c r="AI9" s="16"/>
@@ -13688,7 +13688,7 @@
         <v>0.16</v>
       </c>
       <c r="AH10" s="26" t="str">
-        <f>IF(DATA!CA10&gt;0,DATA!CA10&amp;" SACKOS","")</f>
+        <f>IF(DATA!CA10&lt;0,-DATA!CA10&amp;" SACKOS","")</f>
         <v/>
       </c>
       <c r="AI10" s="9"/>
@@ -13781,7 +13781,7 @@
         <v>0.49</v>
       </c>
       <c r="AH11" s="20" t="str">
-        <f>IF(DATA!CA11&gt;0,DATA!CA11&amp;" SACKOS","")</f>
+        <f>IF(DATA!CA11&lt;0,-DATA!CA11&amp;" SACKOS","")</f>
         <v/>
       </c>
       <c r="AI11" s="16"/>
@@ -13874,7 +13874,7 @@
         <v>0.22</v>
       </c>
       <c r="AH12" s="26" t="str">
-        <f>IF(DATA!CA12&gt;0,DATA!CA12&amp;" SACKOS","")</f>
+        <f>IF(DATA!CA12&lt;0,-DATA!CA12&amp;" SACKOS","")</f>
         <v/>
       </c>
       <c r="AI12" s="9"/>
@@ -13967,7 +13967,7 @@
         <v>0.43</v>
       </c>
       <c r="AH13" s="20" t="str">
-        <f>IF(DATA!CA13&gt;0,DATA!CA13&amp;" SACKOS","")</f>
+        <f>IF(DATA!CA13&lt;0,-DATA!CA13&amp;" SACKOS","")</f>
         <v/>
       </c>
       <c r="AI13" s="16"/>
@@ -14060,7 +14060,7 @@
         <v>0.01</v>
       </c>
       <c r="AH14" s="26" t="str">
-        <f>IF(DATA!CA14&gt;0,DATA!CA14&amp;" SACKOS","")</f>
+        <f>IF(DATA!CA14&lt;0,-DATA!CA14&amp;" SACKOS","")</f>
         <v/>
       </c>
       <c r="AI14" s="9"/>
@@ -14153,7 +14153,7 @@
         <v>-0.28999999999999998</v>
       </c>
       <c r="AH15" s="20" t="str">
-        <f>IF(DATA!CA15&gt;0,DATA!CA15&amp;" SACKOS","")</f>
+        <f>IF(DATA!CA15&lt;0,-DATA!CA15&amp;" SACKOS","")</f>
         <v/>
       </c>
       <c r="AI15" s="16"/>
@@ -14246,7 +14246,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AH16" s="26" t="str">
-        <f>IF(DATA!CA16&gt;0,DATA!CA16&amp;" SACKOS","")</f>
+        <f>IF(DATA!CA16&lt;0,-DATA!CA16&amp;" SACKOS","")</f>
         <v/>
       </c>
       <c r="AI16" s="9"/>
@@ -14297,19 +14297,19 @@
         <f t="shared" si="0"/>
         <v>---&gt;</v>
       </c>
-      <c r="V17" s="64">
+      <c r="V17" s="63">
         <f>DATA!AA18</f>
         <v>16</v>
       </c>
-      <c r="W17" s="64" t="str">
+      <c r="W17" s="63" t="str">
         <f>DATA!AC18</f>
         <v>Team ATAC</v>
       </c>
-      <c r="X17" s="64" t="str">
+      <c r="X17" s="63" t="str">
         <f>DATA!AD18</f>
         <v>Jeff-2018</v>
       </c>
-      <c r="Y17" s="65">
+      <c r="Y17" s="64">
         <f>ROUND(DATA!AE18,2)</f>
         <v>1.55</v>
       </c>
@@ -14338,7 +14338,10 @@
         <f>DATA!BY17</f>
         <v>-1.04</v>
       </c>
-      <c r="AH17" s="20"/>
+      <c r="AH17" s="20" t="str">
+        <f>IF(DATA!CA17&lt;0,-DATA!CA17&amp;" SACKOS","")</f>
+        <v>1 SACKOS</v>
+      </c>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
@@ -14424,8 +14427,11 @@
         <f>DATA!BY18</f>
         <v>-1.17</v>
       </c>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="66"/>
+      <c r="AH18" s="26" t="str">
+        <f>IF(DATA!CA18&lt;0,-DATA!CA18&amp;" SACKOS","")</f>
+        <v>3 SACKOS</v>
+      </c>
+      <c r="AI18" s="65"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
@@ -15623,7 +15629,7 @@
       <c r="S35" s="3"/>
       <c r="U35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>---&gt;</v>
       </c>
       <c r="V35" s="13">
         <f>DATA!AA36</f>
@@ -15631,15 +15637,15 @@
       </c>
       <c r="W35" s="13" t="str">
         <f>DATA!AC36</f>
-        <v>Rolls Royces</v>
+        <v>WINTER IS NEVER COMING</v>
       </c>
       <c r="X35" s="13" t="str">
         <f>DATA!AD36</f>
-        <v>Tony-2018</v>
+        <v>Jeff-2015</v>
       </c>
       <c r="Y35" s="36">
         <f>ROUND(DATA!AE36,2)</f>
-        <v>-0.15</v>
+        <v>-0.18</v>
       </c>
       <c r="Z35" s="3"/>
       <c r="AB35" s="37"/>
@@ -15695,7 +15701,7 @@
       <c r="S36" s="3"/>
       <c r="U36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>---&gt;</v>
+        <v/>
       </c>
       <c r="V36" s="32">
         <f>DATA!AA37</f>
@@ -15703,15 +15709,15 @@
       </c>
       <c r="W36" s="32" t="str">
         <f>DATA!AC37</f>
-        <v>WINTER IS NEVER COMING</v>
+        <v>Galit's Team</v>
       </c>
       <c r="X36" s="32" t="str">
         <f>DATA!AD37</f>
-        <v>Jeff-2015</v>
+        <v>Galit-2018</v>
       </c>
       <c r="Y36" s="33">
         <f>ROUND(DATA!AE37,2)</f>
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="Z36" s="3"/>
       <c r="AB36" s="37"/>
@@ -15775,15 +15781,15 @@
       </c>
       <c r="W37" s="13" t="str">
         <f>DATA!AC38</f>
-        <v>Galit's Team</v>
+        <v>Literally Can't Even</v>
       </c>
       <c r="X37" s="13" t="str">
         <f>DATA!AD38</f>
-        <v>Galit-2018</v>
+        <v>Caryn-2015</v>
       </c>
       <c r="Y37" s="36">
         <f>ROUND(DATA!AE38,2)</f>
-        <v>-0.2</v>
+        <v>-0.23</v>
       </c>
       <c r="Z37" s="3"/>
       <c r="AB37" s="37"/>
@@ -15847,15 +15853,15 @@
       </c>
       <c r="W38" s="32" t="str">
         <f>DATA!AC39</f>
-        <v>Literally Can't Even</v>
+        <v>The Marshawn</v>
       </c>
       <c r="X38" s="32" t="str">
         <f>DATA!AD39</f>
-        <v>Caryn-2015</v>
+        <v>MattP-2015</v>
       </c>
       <c r="Y38" s="33">
         <f>ROUND(DATA!AE39,2)</f>
-        <v>-0.23</v>
+        <v>-0.25</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AB38" s="37"/>
@@ -15919,11 +15925,11 @@
       </c>
       <c r="W39" s="13" t="str">
         <f>DATA!AC40</f>
-        <v>The Marshawn</v>
+        <v>Rolls Royces</v>
       </c>
       <c r="X39" s="13" t="str">
         <f>DATA!AD40</f>
-        <v>MattP-2015</v>
+        <v>Tony-2018</v>
       </c>
       <c r="Y39" s="36">
         <f>ROUND(DATA!AE40,2)</f>
@@ -16135,15 +16141,15 @@
       </c>
       <c r="W42" s="32" t="str">
         <f>DATA!AC43</f>
-        <v>ELITE AS TUCK</v>
+        <v>Curse of the Commish</v>
       </c>
       <c r="X42" s="32" t="str">
         <f>DATA!AD43</f>
-        <v>Caryn-2014</v>
+        <v>Rohit-2018</v>
       </c>
       <c r="Y42" s="33">
         <f>ROUND(DATA!AE43,2)</f>
-        <v>-0.46</v>
+        <v>-0.44</v>
       </c>
       <c r="Z42" s="3"/>
       <c r="AB42" s="37"/>
@@ -16207,15 +16213,15 @@
       </c>
       <c r="W43" s="13" t="str">
         <f>DATA!AC44</f>
-        <v>Fortune Favors The Bold</v>
+        <v>ELITE AS TUCK</v>
       </c>
       <c r="X43" s="13" t="str">
         <f>DATA!AD44</f>
-        <v>Will-2015</v>
+        <v>Caryn-2014</v>
       </c>
       <c r="Y43" s="36">
         <f>ROUND(DATA!AE44,2)</f>
-        <v>-0.5</v>
+        <v>-0.46</v>
       </c>
       <c r="Z43" s="3"/>
       <c r="AB43" s="37"/>
@@ -16279,15 +16285,15 @@
       </c>
       <c r="W44" s="32" t="str">
         <f>DATA!AC45</f>
-        <v>Curse of the Commish</v>
+        <v>Fortune Favors The Bold</v>
       </c>
       <c r="X44" s="32" t="str">
         <f>DATA!AD45</f>
-        <v>Rohit-2018</v>
+        <v>Will-2015</v>
       </c>
       <c r="Y44" s="33">
         <f>ROUND(DATA!AE45,2)</f>
-        <v>-0.54</v>
+        <v>-0.5</v>
       </c>
       <c r="Z44" s="3"/>
       <c r="AB44" s="37"/>
@@ -17694,7 +17700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB58"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
@@ -17919,11 +17925,11 @@
         <v>26</v>
       </c>
       <c r="BP2" s="51">
-        <f>SUMIF($F:$F,BO2,S:S)</f>
+        <f t="shared" ref="BP2:BP18" si="0">SUMIF($F:$F,BO2,S:S)</f>
         <v>0.78660976763469614</v>
       </c>
       <c r="BQ2" s="51">
-        <f>COUNTIF(F:F,$BO2)</f>
+        <f t="shared" ref="BQ2:BQ18" si="1">COUNTIF(F:F,$BO2)</f>
         <v>5</v>
       </c>
       <c r="BR2" s="51">
@@ -17938,20 +17944,20 @@
         <v>1</v>
       </c>
       <c r="BV2" s="52" t="str">
-        <f t="shared" ref="BV2:BV18" si="0">INDEX(BO:BO,MATCH(BU2,BN:BN,0))</f>
+        <f t="shared" ref="BV2:BV18" si="2">INDEX(BO:BO,MATCH(BU2,BN:BN,0))</f>
         <v>Rohit</v>
       </c>
       <c r="BW2" s="57">
         <f>ROUND(INDEX(BP:BP,MATCH(BV2,BO:BO,0)),2)</f>
-        <v>8.77</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="BX2" s="57">
-        <f t="shared" ref="BX2:BX18" si="1">INDEX(BQ:BQ,MATCH(BV2,BO:BO,0),1)</f>
+        <f t="shared" ref="BX2:BX18" si="3">INDEX(BQ:BQ,MATCH(BV2,BO:BO,0),1)</f>
         <v>5</v>
       </c>
       <c r="BY2" s="57">
-        <f t="shared" ref="BY2:BY18" si="2">ROUND(INDEX(BR:BR,MATCH(BV2,BO:BO,0)),2)</f>
-        <v>1.75</v>
+        <f t="shared" ref="BY2:BY18" si="4">ROUND(INDEX(BR:BR,MATCH(BV2,BO:BO,0)),2)</f>
+        <v>1.77</v>
       </c>
       <c r="BZ2" s="52">
         <f>SUMIFS(X:X,F:F,BV2,X:X,1)</f>
@@ -17959,7 +17965,7 @@
       </c>
       <c r="CA2" s="52">
         <f>SUMIFS(X:X,F:F,BV2,X:X,-1)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:79" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17974,7 +17980,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="61">
-        <f t="shared" ref="D3:D57" si="3">RANK(S3,$S$3:$S$58)</f>
+        <f t="shared" ref="D3:D57" si="5">RANK(S3,$S$3:$S$58)</f>
         <v>1</v>
       </c>
       <c r="E3" s="60" t="s">
@@ -18038,7 +18044,7 @@
         <v>1</v>
       </c>
       <c r="X3" s="60">
-        <f>IF(W3=MAX($W$3:$W$12),-1,IF(W3=1,1,""))</f>
+        <f t="shared" ref="X3:X12" si="6">IF(W3=MAX($W$3:$W$12),-1,IF(W3=1,1,""))</f>
         <v>1</v>
       </c>
       <c r="Y3" s="51">
@@ -18049,113 +18055,113 @@
         <v>1</v>
       </c>
       <c r="AB3" s="62" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA3,$D:$D,0),1)=1,"*","")</f>
+        <f t="shared" ref="AB3:AB17" si="7">IF(INDEX($W:$W,MATCH($AA3,$D:$D,0),1)=1,"*","")</f>
         <v>*</v>
       </c>
       <c r="AC3" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA3,$D:$D,0),2)</f>
+        <f t="shared" ref="AC3:AC34" si="8">INDEX($D:$R,MATCH($AA3,$D:$D,0),2)</f>
         <v>The Decepticons</v>
       </c>
       <c r="AD3" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA3,$D:$D,0),4)</f>
+        <f t="shared" ref="AD3:AD34" si="9">INDEX($D:$R,MATCH($AA3,$D:$D,0),4)</f>
         <v>Rohit-2014</v>
       </c>
       <c r="AE3" s="52">
-        <f>INDEX(S:S,MATCH(AA3,D:D,0))</f>
+        <f t="shared" ref="AE3:AE34" si="10">INDEX(S:S,MATCH(AA3,D:D,0))</f>
         <v>3.0664433795061998</v>
       </c>
       <c r="AF3" s="52">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" ref="AF3:AP12" si="11">INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AF$2,2))</f>
         <v>94.185400598372212</v>
       </c>
       <c r="AG3" s="52">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="11"/>
         <v>108.0506623842124</v>
       </c>
       <c r="AH3" s="52">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="11"/>
         <v>82.315991433657132</v>
       </c>
       <c r="AI3" s="52">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="11"/>
         <v>91.369727770227485</v>
       </c>
       <c r="AJ3" s="52">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="11"/>
         <v>103.2096679497332</v>
       </c>
       <c r="AK3" s="52">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="11"/>
         <v>114.16677127310599</v>
       </c>
       <c r="AL3" s="52">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="11"/>
         <v>113.06326136645643</v>
       </c>
       <c r="AM3" s="52">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="11"/>
         <v>91.535341514796386</v>
       </c>
       <c r="AN3" s="52">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="11"/>
         <v>122.61699605725315</v>
       </c>
       <c r="AO3" s="52">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="11"/>
         <v>107.25841631510421</v>
       </c>
       <c r="AP3" s="52">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="11"/>
         <v>118.31182273824533</v>
       </c>
       <c r="BN3" s="51">
-        <f t="shared" ref="BN3:BN18" si="4">RANK(BP3,$BP:$BP)</f>
+        <f t="shared" ref="BN3:BN18" si="12">RANK(BP3,$BP:$BP)</f>
         <v>16</v>
       </c>
       <c r="BO3" s="58" t="s">
         <v>23</v>
       </c>
       <c r="BP3" s="51">
-        <f>SUMIF($F:$F,BO3,S:S)</f>
+        <f t="shared" si="0"/>
         <v>-3.1112323429363098</v>
       </c>
       <c r="BQ3" s="51">
-        <f>COUNTIF(F:F,$BO3)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BR3" s="51">
-        <f t="shared" ref="BR3:BR17" si="5">BP3/BQ3</f>
+        <f t="shared" ref="BR3:BR17" si="13">BP3/BQ3</f>
         <v>-1.0370774476454365</v>
       </c>
       <c r="BS3" s="51">
-        <f t="shared" ref="BS3:BS17" si="6">RANK(BR3,BR:BR)</f>
+        <f t="shared" ref="BS3:BS17" si="14">RANK(BR3,BR:BR)</f>
         <v>16</v>
       </c>
       <c r="BU3" s="59">
         <v>2</v>
       </c>
       <c r="BV3" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Pranay</v>
       </c>
       <c r="BW3" s="57">
-        <f t="shared" ref="BW3:BW18" si="7">ROUND(INDEX(BP:BP,MATCH(BV3,BO:BO,0)),2)</f>
+        <f t="shared" ref="BW3:BW18" si="15">ROUND(INDEX(BP:BP,MATCH(BV3,BO:BO,0)),2)</f>
         <v>5.88</v>
       </c>
       <c r="BX3" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BY3" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.18</v>
       </c>
       <c r="BZ3" s="52">
-        <f t="shared" ref="BZ3:BZ18" si="8">SUMIFS(X:X,F:F,BV3,X:X,1)</f>
+        <f t="shared" ref="BZ3:BZ18" si="16">SUMIFS(X:X,F:F,BV3,X:X,1)</f>
         <v>0</v>
       </c>
       <c r="CA3" s="52">
-        <f t="shared" ref="CA3:CA18" si="9">SUMIFS(X:X,F:F,BV3,X:X,-1)</f>
+        <f t="shared" ref="CA3:CA18" si="17">SUMIFS(X:X,F:F,BV3,X:X,-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -18167,11 +18173,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="61">
-        <f t="shared" ref="C4:C48" si="10">RANK(U4,$U$3:$U$58)</f>
+        <f t="shared" ref="C4:C48" si="18">RANK(U4,$U$3:$U$58)</f>
         <v>17</v>
       </c>
       <c r="D4" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E4" s="60" t="s">
@@ -18181,7 +18187,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="60" t="str">
-        <f t="shared" ref="G4:G58" si="11">F4&amp;"-"&amp;$A4</f>
+        <f t="shared" ref="G4:G58" si="19">F4&amp;"-"&amp;$A4</f>
         <v>Galit-2014</v>
       </c>
       <c r="H4" s="60">
@@ -18218,14 +18224,14 @@
         <v>103.21163983096702</v>
       </c>
       <c r="S4" s="60">
-        <f t="shared" ref="S4:S12" si="12">(AVERAGE(H4:R4)-AVERAGE($H$3:$R$12))/(_xlfn.STDEV.P($H$3:$R$12)*_xlfn.STDEV.P(H4:R4))+(R4-AVERAGE($R$3:$R$12))/_xlfn.STDEV.P($R$3:$R$12)+(MAX($W$3:$W$12)-W4)/MAX($W$3:$W$12)</f>
+        <f t="shared" ref="S4:S12" si="20">(AVERAGE(H4:R4)-AVERAGE($H$3:$R$12))/(_xlfn.STDEV.P($H$3:$R$12)*_xlfn.STDEV.P(H4:R4))+(R4-AVERAGE($R$3:$R$12))/_xlfn.STDEV.P($R$3:$R$12)+(MAX($W$3:$W$12)-W4)/MAX($W$3:$W$12)</f>
         <v>1.9421723238131785</v>
       </c>
       <c r="T4" s="60">
         <v>7.3333333333333321</v>
       </c>
       <c r="U4" s="60">
-        <f t="shared" ref="U4:U38" si="13">T4/13</f>
+        <f t="shared" ref="U4:U38" si="21">T4/13</f>
         <v>0.56410256410256399</v>
       </c>
       <c r="V4" s="60">
@@ -18235,120 +18241,120 @@
         <v>2</v>
       </c>
       <c r="X4" s="60" t="str">
-        <f>IF(W4=MAX($W$3:$W$12),-1,IF(W4=1,1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA4" s="52">
         <v>2</v>
       </c>
       <c r="AB4" s="62" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA4,$D:$D,0),1)=1,"*","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC4" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA4,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>What Would Gronk Do</v>
       </c>
       <c r="AD4" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA4,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Pranay-2015</v>
       </c>
       <c r="AE4" s="52">
-        <f>INDEX(S:S,MATCH(AA4,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>2.9053416676567272</v>
       </c>
       <c r="AF4" s="52">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="11"/>
         <v>107.37871612577005</v>
       </c>
       <c r="AG4" s="52">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="11"/>
         <v>85.328830298823149</v>
       </c>
       <c r="AH4" s="52">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="11"/>
         <v>95.217789751420042</v>
       </c>
       <c r="AI4" s="52">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="11"/>
         <v>86.256201079242302</v>
       </c>
       <c r="AJ4" s="52">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="11"/>
         <v>92.996449816342988</v>
       </c>
       <c r="AK4" s="52">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="11"/>
         <v>91.059515455974804</v>
       </c>
       <c r="AL4" s="52">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="11"/>
         <v>97.276191992418333</v>
       </c>
       <c r="AM4" s="52">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="11"/>
         <v>100.76443915904581</v>
       </c>
       <c r="AN4" s="52">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="11"/>
         <v>102.14106022978487</v>
       </c>
       <c r="AO4" s="52">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="11"/>
         <v>107.3174336526064</v>
       </c>
       <c r="AP4" s="52">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="11"/>
         <v>108.44858076760882</v>
       </c>
       <c r="BN4" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="BO4" s="58" t="s">
         <v>25</v>
       </c>
       <c r="BP4" s="51">
-        <f>SUMIF($F:$F,BO4,S:S)</f>
+        <f t="shared" si="0"/>
         <v>3.6128662736758024</v>
       </c>
       <c r="BQ4" s="51">
-        <f>COUNTIF(F:F,$BO4)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="BR4" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.72257325473516043</v>
       </c>
       <c r="BS4" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="BU4" s="59">
         <v>3</v>
       </c>
       <c r="BV4" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Mili/Vinay</v>
       </c>
       <c r="BW4" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>4.87</v>
       </c>
       <c r="BX4" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BY4" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.22</v>
       </c>
       <c r="BZ4" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CA4" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -18360,11 +18366,11 @@
         <v>3</v>
       </c>
       <c r="C5" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="D5" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="E5" s="60" t="s">
@@ -18374,7 +18380,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Ally-2014</v>
       </c>
       <c r="H5" s="60">
@@ -18411,14 +18417,14 @@
         <v>85.3755746604009</v>
       </c>
       <c r="S5" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.55904118319066853</v>
       </c>
       <c r="T5" s="60">
         <v>7.2222222222222223</v>
       </c>
       <c r="U5" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="V5" s="60">
@@ -18428,120 +18434,120 @@
         <v>5</v>
       </c>
       <c r="X5" s="60" t="str">
-        <f>IF(W5=MAX($W$3:$W$12),-1,IF(W5=1,1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA5" s="52">
         <v>3</v>
       </c>
       <c r="AB5" s="62" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA5,$D:$D,0),1)=1,"*","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC5" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA5,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Rohit's Avocado Farm</v>
       </c>
       <c r="AD5" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA5,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Tony-2017</v>
       </c>
       <c r="AE5" s="52">
-        <f>INDEX(S:S,MATCH(AA5,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>2.3671884607784639</v>
       </c>
       <c r="AF5" s="52">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="11"/>
         <v>85.689288581176001</v>
       </c>
       <c r="AG5" s="52">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="11"/>
         <v>89.379442880619806</v>
       </c>
       <c r="AH5" s="52">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="11"/>
         <v>89.505986318840556</v>
       </c>
       <c r="AI5" s="52">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="11"/>
         <v>96.737159046456654</v>
       </c>
       <c r="AJ5" s="52">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="11"/>
         <v>99.957876172449673</v>
       </c>
       <c r="AK5" s="52">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="11"/>
         <v>93.289701055700135</v>
       </c>
       <c r="AL5" s="52">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="11"/>
         <v>98.955533768604951</v>
       </c>
       <c r="AM5" s="52">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="11"/>
         <v>95.199406199144462</v>
       </c>
       <c r="AN5" s="52">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="11"/>
         <v>89.277888791854508</v>
       </c>
       <c r="AO5" s="52">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="11"/>
         <v>96.903150003964129</v>
       </c>
       <c r="AP5" s="52">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="11"/>
         <v>96.903150003964129</v>
       </c>
       <c r="BN5" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="BO5" s="58" t="s">
         <v>36</v>
       </c>
       <c r="BP5" s="51">
-        <f>SUMIF($F:$F,BO5,S:S)</f>
+        <f t="shared" si="0"/>
         <v>0.44931419906792613</v>
       </c>
       <c r="BQ5" s="51">
-        <f>COUNTIF(F:F,$BO5)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BR5" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.22465709953396307</v>
       </c>
       <c r="BS5" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="BU5" s="59">
         <v>4</v>
       </c>
       <c r="BV5" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Caryn</v>
       </c>
       <c r="BW5" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>3.61</v>
       </c>
       <c r="BX5" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BY5" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.72</v>
       </c>
       <c r="BZ5" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="CA5" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -18553,11 +18559,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="D6" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="E6" s="60" t="s">
@@ -18567,7 +18573,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Muhamad-2014</v>
       </c>
       <c r="H6" s="60">
@@ -18604,14 +18610,14 @@
         <v>88.840292637018194</v>
       </c>
       <c r="S6" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.49043322153258229</v>
       </c>
       <c r="T6" s="60">
         <v>7.5555555555555545</v>
       </c>
       <c r="U6" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.58119658119658113</v>
       </c>
       <c r="V6" s="60">
@@ -18621,120 +18627,120 @@
         <v>7</v>
       </c>
       <c r="X6" s="60" t="str">
-        <f>IF(W6=MAX($W$3:$W$12),-1,IF(W6=1,1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA6" s="52">
         <v>4</v>
       </c>
       <c r="AB6" s="62" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA6,$D:$D,0),1)=1,"*","")</f>
+        <f t="shared" si="7"/>
         <v>*</v>
       </c>
       <c r="AC6" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA6,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Avacado Seeds</v>
       </c>
       <c r="AD6" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA6,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Rohit-2017</v>
       </c>
       <c r="AE6" s="52">
-        <f>INDEX(S:S,MATCH(AA6,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>2.3212509543629354</v>
       </c>
       <c r="AF6" s="52">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="11"/>
         <v>101.25144846627126</v>
       </c>
       <c r="AG6" s="52">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="11"/>
         <v>107.63787784209615</v>
       </c>
       <c r="AH6" s="52">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="11"/>
         <v>95.092655987025068</v>
       </c>
       <c r="AI6" s="52">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="11"/>
         <v>103.11139337381189</v>
       </c>
       <c r="AJ6" s="52">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="11"/>
         <v>108.43515641243737</v>
       </c>
       <c r="AK6" s="52">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="11"/>
         <v>106.6649148576173</v>
       </c>
       <c r="AL6" s="52">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="11"/>
         <v>95.724251778203367</v>
       </c>
       <c r="AM6" s="52">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="11"/>
         <v>102.80913620846437</v>
       </c>
       <c r="AN6" s="52">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="11"/>
         <v>102.74660379721669</v>
       </c>
       <c r="AO6" s="52">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="11"/>
         <v>92.234025941380892</v>
       </c>
       <c r="AP6" s="52">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="11"/>
         <v>92.234025941380892</v>
       </c>
       <c r="BN6" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="BO6" s="58" t="s">
         <v>22</v>
       </c>
       <c r="BP6" s="51">
-        <f>SUMIF($F:$F,BO6,S:S)</f>
+        <f t="shared" si="0"/>
         <v>-0.32824082526128806</v>
       </c>
       <c r="BQ6" s="51">
-        <f>COUNTIF(F:F,$BO6)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="BR6" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>-6.5648165052257609E-2</v>
       </c>
       <c r="BS6" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="BU6" s="59">
         <v>5</v>
       </c>
       <c r="BV6" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Sherwin</v>
       </c>
       <c r="BW6" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>3.15</v>
       </c>
       <c r="BX6" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BY6" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.57</v>
       </c>
       <c r="BZ6" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="CA6" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -18746,12 +18752,12 @@
         <v>5</v>
       </c>
       <c r="C7" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="D7" s="61">
-        <f t="shared" si="3"/>
-        <v>41</v>
+        <f t="shared" si="5"/>
+        <v>42</v>
       </c>
       <c r="E7" s="60" t="s">
         <v>4</v>
@@ -18760,7 +18766,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Caryn-2014</v>
       </c>
       <c r="H7" s="60">
@@ -18797,14 +18803,14 @@
         <v>74.056833647840932</v>
       </c>
       <c r="S7" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-0.45932736220250275</v>
       </c>
       <c r="T7" s="60">
         <v>6.8888888888888884</v>
       </c>
       <c r="U7" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.52991452991452992</v>
       </c>
       <c r="V7" s="60">
@@ -18814,121 +18820,121 @@
         <v>8</v>
       </c>
       <c r="X7" s="60" t="str">
-        <f>IF(W7=MAX($W$3:$W$12),-1,IF(W7=1,1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA7" s="52">
         <v>5</v>
       </c>
       <c r="AB7" s="62" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA7,$D:$D,0),1)=1,"*","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC7" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA7,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Show me the Evans</v>
       </c>
       <c r="AD7" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA7,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Rohit-2016</v>
       </c>
       <c r="AE7" s="52">
-        <f>INDEX(S:S,MATCH(AA7,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>2.1715725304465465</v>
       </c>
       <c r="AF7" s="52">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="11"/>
         <v>119.72664059356207</v>
       </c>
       <c r="AG7" s="52">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="11"/>
         <v>78.658652808329521</v>
       </c>
       <c r="AH7" s="52">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="11"/>
         <v>89.648921405185945</v>
       </c>
       <c r="AI7" s="52">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="11"/>
         <v>94.120287277533834</v>
       </c>
       <c r="AJ7" s="52">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="11"/>
         <v>92.094877407431369</v>
       </c>
       <c r="AK7" s="52">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="11"/>
         <v>91.009654749403595</v>
       </c>
       <c r="AL7" s="52">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="11"/>
         <v>102.39715961855879</v>
       </c>
       <c r="AM7" s="52">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="11"/>
         <v>95.599092504556893</v>
       </c>
       <c r="AN7" s="52">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="11"/>
         <v>105.14102005157409</v>
       </c>
       <c r="AO7" s="52">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="11"/>
         <v>103.08508920832597</v>
       </c>
       <c r="AP7" s="52">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="11"/>
         <v>95.22668598878802</v>
       </c>
       <c r="BN7" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="BO7" s="58" t="s">
         <v>31</v>
       </c>
       <c r="BP7" s="51">
-        <f>SUMIF($F:$F,BO7,S:S)</f>
+        <f t="shared" si="0"/>
         <v>3.1591305343494636E-2</v>
       </c>
       <c r="BQ7" s="51">
-        <f>COUNTIF(F:F,$BO7)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="BR7" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>6.3182610686989271E-3</v>
       </c>
       <c r="BS7" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="BU7" s="59">
         <v>6</v>
       </c>
       <c r="BV7" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Tony</v>
       </c>
       <c r="BW7" s="57">
-        <f t="shared" si="7"/>
-        <v>2.75</v>
+        <f t="shared" si="15"/>
+        <v>2.65</v>
       </c>
       <c r="BX7" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BY7" s="57">
-        <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="4"/>
+        <v>0.53</v>
       </c>
       <c r="BZ7" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CA7" s="52">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:79" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -18939,11 +18945,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>37</v>
       </c>
       <c r="D8" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="E8" s="60" t="s">
@@ -18953,7 +18959,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Akshay-2014</v>
       </c>
       <c r="H8" s="60">
@@ -18990,14 +18996,14 @@
         <v>70.496301723984828</v>
       </c>
       <c r="S8" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-0.65088288701210339</v>
       </c>
       <c r="T8" s="60">
         <v>5.7777777777777777</v>
       </c>
       <c r="U8" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="V8" s="60">
@@ -19007,120 +19013,120 @@
         <v>6</v>
       </c>
       <c r="X8" s="60" t="str">
-        <f>IF(W8=MAX($W$3:$W$12),-1,IF(W8=1,1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA8" s="52">
         <v>6</v>
       </c>
       <c r="AB8" s="62" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA8,$D:$D,0),1)=1,"*","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC8" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA8,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Forte v3 Taco Fiesta part 2</v>
       </c>
       <c r="AD8" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA8,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Galit-2014</v>
       </c>
       <c r="AE8" s="52">
-        <f>INDEX(S:S,MATCH(AA8,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.9421723238131785</v>
       </c>
       <c r="AF8" s="52">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="11"/>
         <v>73.314998399207326</v>
       </c>
       <c r="AG8" s="52">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="11"/>
         <v>86.744625065083454</v>
       </c>
       <c r="AH8" s="52">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="11"/>
         <v>75.355254928116068</v>
       </c>
       <c r="AI8" s="52">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="11"/>
         <v>80.498873511596372</v>
       </c>
       <c r="AJ8" s="52">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="11"/>
         <v>88.125306344765846</v>
       </c>
       <c r="AK8" s="52">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="11"/>
         <v>96.045278683633754</v>
       </c>
       <c r="AL8" s="52">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="11"/>
         <v>94.836037535170334</v>
       </c>
       <c r="AM8" s="52">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="11"/>
         <v>81.70761724269596</v>
       </c>
       <c r="AN8" s="52">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="11"/>
         <v>85.622884472104204</v>
       </c>
       <c r="AO8" s="52">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="11"/>
         <v>78.820960507436752</v>
       </c>
       <c r="AP8" s="52">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="11"/>
         <v>103.21163983096702</v>
       </c>
       <c r="BN8" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="BO8" s="58" t="s">
         <v>39</v>
       </c>
       <c r="BP8" s="51">
-        <f>SUMIF($F:$F,BO8,S:S)</f>
+        <f t="shared" si="0"/>
         <v>-0.29133424751426912</v>
       </c>
       <c r="BQ8" s="51">
-        <f>COUNTIF(F:F,$BO8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BR8" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>-0.29133424751426912</v>
       </c>
       <c r="BS8" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="BU8" s="59">
         <v>7</v>
       </c>
       <c r="BV8" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>MattK</v>
       </c>
       <c r="BW8" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.64</v>
       </c>
       <c r="BX8" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BY8" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.64</v>
       </c>
       <c r="BZ8" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CA8" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19132,11 +19138,11 @@
         <v>7</v>
       </c>
       <c r="C9" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="D9" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="E9" s="60" t="s">
@@ -19146,7 +19152,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Tony-2014</v>
       </c>
       <c r="H9" s="60">
@@ -19183,14 +19189,14 @@
         <v>91.594250747750635</v>
       </c>
       <c r="S9" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1.0206632708815659</v>
       </c>
       <c r="T9" s="60">
         <v>5.666666666666667</v>
       </c>
       <c r="U9" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.4358974358974359</v>
       </c>
       <c r="V9" s="60">
@@ -19200,120 +19206,120 @@
         <v>4</v>
       </c>
       <c r="X9" s="60" t="str">
-        <f>IF(W9=MAX($W$3:$W$12),-1,IF(W9=1,1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA9" s="52">
         <v>7</v>
       </c>
       <c r="AB9" s="62" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA9,$D:$D,0),1)=1,"*","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC9" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA9,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Edison 4ever</v>
       </c>
       <c r="AD9" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA9,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Mili/Vinay-2018</v>
       </c>
       <c r="AE9" s="52">
-        <f>INDEX(S:S,MATCH(AA9,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.8212871927974148</v>
       </c>
       <c r="AF9" s="52">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="11"/>
         <v>75.126277084950274</v>
       </c>
       <c r="AG9" s="52">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="11"/>
         <v>80.612329514866559</v>
       </c>
       <c r="AH9" s="52">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="11"/>
         <v>91.983319359243893</v>
       </c>
       <c r="AI9" s="52">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="11"/>
         <v>89.524542547548791</v>
       </c>
       <c r="AJ9" s="52">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="11"/>
         <v>92.552834932086739</v>
       </c>
       <c r="AK9" s="52">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="11"/>
         <v>99.674308626069688</v>
       </c>
       <c r="AL9" s="52">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="11"/>
         <v>94.28370811799968</v>
       </c>
       <c r="AM9" s="52">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="11"/>
         <v>97.778398159048194</v>
       </c>
       <c r="AN9" s="52">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="11"/>
         <v>98.311033877863068</v>
       </c>
       <c r="AO9" s="52">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="11"/>
         <v>95.822710207306102</v>
       </c>
       <c r="AP9" s="52">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="11"/>
         <v>89.858339435629361</v>
       </c>
       <c r="BN9" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="BO9" s="58" t="s">
         <v>38</v>
       </c>
       <c r="BP9" s="51">
-        <f>SUMIF($F:$F,BO9,S:S)</f>
+        <f t="shared" si="0"/>
         <v>1.4255123249504491</v>
       </c>
       <c r="BQ9" s="51">
-        <f>COUNTIF(F:F,$BO9)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BR9" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.71275616247522455</v>
       </c>
       <c r="BS9" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="BU9" s="59">
         <v>8</v>
       </c>
       <c r="BV9" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>MattP</v>
       </c>
       <c r="BW9" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.43</v>
       </c>
       <c r="BX9" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BY9" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.71</v>
       </c>
       <c r="BZ9" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CA9" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19325,11 +19331,11 @@
         <v>8</v>
       </c>
       <c r="C10" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
       <c r="D10" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="E10" s="60" t="s">
@@ -19339,7 +19345,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Pranay-2014</v>
       </c>
       <c r="H10" s="60">
@@ -19376,14 +19382,14 @@
         <v>88.455403734703609</v>
       </c>
       <c r="S10" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.94481008292727364</v>
       </c>
       <c r="T10" s="60">
         <v>5.4444444444444446</v>
       </c>
       <c r="U10" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.41880341880341881</v>
       </c>
       <c r="V10" s="60">
@@ -19393,120 +19399,120 @@
         <v>3</v>
       </c>
       <c r="X10" s="60" t="str">
-        <f>IF(W10=MAX($W$3:$W$12),-1,IF(W10=1,1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA10" s="52">
         <v>8</v>
       </c>
       <c r="AB10" s="62" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA10,$D:$D,0),1)=1,"*","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC10" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA10,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>0 to 100</v>
       </c>
       <c r="AD10" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA10,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Rohit-2015</v>
       </c>
       <c r="AE10" s="52">
-        <f>INDEX(S:S,MATCH(AA10,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.7483143505877592</v>
       </c>
       <c r="AF10" s="52">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="11"/>
         <v>72.988739492412208</v>
       </c>
       <c r="AG10" s="52">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="11"/>
         <v>66.559324631495031</v>
       </c>
       <c r="AH10" s="52">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="11"/>
         <v>71.238420401846895</v>
       </c>
       <c r="AI10" s="52">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="11"/>
         <v>85.506173591655681</v>
       </c>
       <c r="AJ10" s="52">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="11"/>
         <v>79.091417302654861</v>
       </c>
       <c r="AK10" s="52">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="11"/>
         <v>80.979163047946457</v>
       </c>
       <c r="AL10" s="52">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="11"/>
         <v>86.930905403229517</v>
       </c>
       <c r="AM10" s="52">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="11"/>
         <v>87.692340722861516</v>
       </c>
       <c r="AN10" s="52">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="11"/>
         <v>94.019241942362669</v>
       </c>
       <c r="AO10" s="52">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="11"/>
         <v>102.33311735556391</v>
       </c>
       <c r="AP10" s="52">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="11"/>
         <v>95.478730337962247</v>
       </c>
       <c r="BN10" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="BO10" s="58" t="s">
         <v>74</v>
       </c>
       <c r="BP10" s="51">
-        <f>SUMIF($F:$F,BO10,S:S)</f>
+        <f t="shared" si="0"/>
         <v>1.6401346176621958</v>
       </c>
       <c r="BQ10" s="51">
-        <f>COUNTIF(F:F,$BO10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BR10" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.6401346176621958</v>
       </c>
       <c r="BS10" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="BU10" s="59">
         <v>9</v>
       </c>
       <c r="BV10" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Akshay</v>
       </c>
       <c r="BW10" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.79</v>
       </c>
       <c r="BX10" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BY10" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
       <c r="BZ10" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CA10" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19518,11 +19524,11 @@
         <v>9</v>
       </c>
       <c r="C11" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>49</v>
       </c>
       <c r="D11" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="E11" s="60" t="s">
@@ -19532,7 +19538,7 @@
         <v>31</v>
       </c>
       <c r="G11" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Jeff-2014</v>
       </c>
       <c r="H11" s="60">
@@ -19569,14 +19575,14 @@
         <v>73.60122143113324</v>
       </c>
       <c r="S11" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-0.73414845471252133</v>
       </c>
       <c r="T11" s="60">
         <v>4.4444444444444446</v>
       </c>
       <c r="U11" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.34188034188034189</v>
       </c>
       <c r="V11" s="60">
@@ -19586,120 +19592,120 @@
         <v>9</v>
       </c>
       <c r="X11" s="60" t="str">
-        <f>IF(W11=MAX($W$3:$W$12),-1,IF(W11=1,1,""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA11" s="52">
         <v>9</v>
       </c>
       <c r="AB11" s="62" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA11,$D:$D,0),1)=1,"*","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC11" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA11,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Taniquetil Eagles</v>
       </c>
       <c r="AD11" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA11,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>MattP-2016</v>
       </c>
       <c r="AE11" s="52">
-        <f>INDEX(S:S,MATCH(AA11,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.6708186390339921</v>
       </c>
       <c r="AF11" s="52">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="11"/>
         <v>93.628556843145518</v>
       </c>
       <c r="AG11" s="52">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="11"/>
         <v>110.53467811481752</v>
       </c>
       <c r="AH11" s="52">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="11"/>
         <v>109.67798567945444</v>
       </c>
       <c r="AI11" s="52">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="11"/>
         <v>105.9439284411805</v>
       </c>
       <c r="AJ11" s="52">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="11"/>
         <v>114.96906432406287</v>
       </c>
       <c r="AK11" s="52">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="11"/>
         <v>96.820852906478677</v>
       </c>
       <c r="AL11" s="52">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="11"/>
         <v>92.105192334499506</v>
       </c>
       <c r="AM11" s="52">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="11"/>
         <v>99.210682552298337</v>
       </c>
       <c r="AN11" s="52">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="11"/>
         <v>90.108597917278146</v>
       </c>
       <c r="AO11" s="52">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="11"/>
         <v>95.070514906432038</v>
       </c>
       <c r="AP11" s="52">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="11"/>
         <v>90.637548236234466</v>
       </c>
       <c r="BN11" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="BO11" s="58" t="s">
         <v>37</v>
       </c>
       <c r="BP11" s="51">
-        <f>SUMIF($F:$F,BO11,S:S)</f>
+        <f t="shared" si="0"/>
         <v>4.8668959776080722</v>
       </c>
       <c r="BQ11" s="51">
-        <f>COUNTIF(F:F,$BO11)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BR11" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.2167239944020181</v>
       </c>
       <c r="BS11" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="BU11" s="59">
         <v>10</v>
       </c>
       <c r="BV11" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Muhamad</v>
       </c>
       <c r="BW11" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.49</v>
       </c>
       <c r="BX11" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BY11" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.49</v>
       </c>
       <c r="BZ11" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CA11" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19711,11 +19717,11 @@
         <v>10</v>
       </c>
       <c r="C12" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>47</v>
       </c>
       <c r="D12" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="E12" s="60" t="s">
@@ -19725,7 +19731,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Will-2014</v>
       </c>
       <c r="H12" s="60">
@@ -19762,14 +19768,14 @@
         <v>59.329142441202279</v>
       </c>
       <c r="S12" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-1.6916173967696553</v>
       </c>
       <c r="T12" s="60">
         <v>4.666666666666667</v>
       </c>
       <c r="U12" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.35897435897435898</v>
       </c>
       <c r="V12" s="60">
@@ -19779,120 +19785,120 @@
         <v>10</v>
       </c>
       <c r="X12" s="60">
-        <f>IF(W12=MAX($W$3:$W$12),-1,IF(W12=1,1,""))</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="AA12" s="52">
         <v>10</v>
       </c>
       <c r="AB12" s="62" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA12,$D:$D,0),1)=1,"*","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC12" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA12,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Do You Even Lift?</v>
       </c>
       <c r="AD12" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA12,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Charles-2015</v>
       </c>
       <c r="AE12" s="52">
-        <f>INDEX(S:S,MATCH(AA12,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.6550235805578595</v>
       </c>
       <c r="AF12" s="52">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="11"/>
         <v>90.363759796730392</v>
       </c>
       <c r="AG12" s="52">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="11"/>
         <v>92.47300621864116</v>
       </c>
       <c r="AH12" s="52">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="11"/>
         <v>81.655611520562687</v>
       </c>
       <c r="AI12" s="52">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="11"/>
         <v>91.386069592539215</v>
       </c>
       <c r="AJ12" s="52">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="11"/>
         <v>76.194631108053073</v>
       </c>
       <c r="AK12" s="52">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="11"/>
         <v>90.422586354085468</v>
       </c>
       <c r="AL12" s="52">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="11"/>
         <v>89.003404419312218</v>
       </c>
       <c r="AM12" s="52">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="11"/>
         <v>81.627813300171226</v>
       </c>
       <c r="AN12" s="52">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="11"/>
         <v>88.832488298583343</v>
       </c>
       <c r="AO12" s="52">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="11"/>
         <v>89.584523299494037</v>
       </c>
       <c r="AP12" s="52">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="11"/>
         <v>88.817246231360656</v>
       </c>
       <c r="BN12" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="BO12" s="58" t="s">
         <v>24</v>
       </c>
       <c r="BP12" s="51">
-        <f>SUMIF($F:$F,BO12,S:S)</f>
+        <f t="shared" si="0"/>
         <v>0.49043322153258229</v>
       </c>
       <c r="BQ12" s="51">
-        <f>COUNTIF(F:F,$BO12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BR12" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.49043322153258229</v>
       </c>
       <c r="BS12" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="BU12" s="59">
         <v>11</v>
       </c>
       <c r="BV12" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Charles</v>
       </c>
       <c r="BW12" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.45</v>
       </c>
       <c r="BX12" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BY12" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.22</v>
       </c>
       <c r="BZ12" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CA12" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -19904,11 +19910,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="D13" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E13" s="58" t="s">
@@ -19918,7 +19924,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Pranay-2015</v>
       </c>
       <c r="H13" s="58">
@@ -19962,7 +19968,7 @@
         <v>10.000000000000002</v>
       </c>
       <c r="U13" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.76923076923076938</v>
       </c>
       <c r="V13" s="58">
@@ -19972,7 +19978,7 @@
         <v>3</v>
       </c>
       <c r="X13" s="58" t="str">
-        <f>IF(W13=MAX($W$13:$W$26),-1,IF(W13=1,1,""))</f>
+        <f t="shared" ref="X13:X26" si="22">IF(W13=MAX($W$13:$W$26),-1,IF(W13=1,1,""))</f>
         <v/>
       </c>
       <c r="Y13" s="51">
@@ -19983,113 +19989,113 @@
         <v>11</v>
       </c>
       <c r="AB13" s="62" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA13,$D:$D,0),1)=1,"*","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC13" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA13,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Belee Dat</v>
       </c>
       <c r="AD13" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA13,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Caryn-2018</v>
       </c>
       <c r="AE13" s="52">
-        <f>INDEX(S:S,MATCH(AA13,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.6420472633955201</v>
       </c>
       <c r="AF13" s="52">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" ref="AF13:AP22" si="23">INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AF$2,2))</f>
         <v>109.11860882271502</v>
       </c>
       <c r="AG13" s="52">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="23"/>
         <v>111.43925463433807</v>
       </c>
       <c r="AH13" s="52">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="23"/>
         <v>101.44425181286884</v>
       </c>
       <c r="AI13" s="52">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="23"/>
         <v>82.050056475757785</v>
       </c>
       <c r="AJ13" s="52">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="23"/>
         <v>75.963177361731013</v>
       </c>
       <c r="AK13" s="52">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="23"/>
         <v>83.020326413713107</v>
       </c>
       <c r="AL13" s="52">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="23"/>
         <v>84.507979239974659</v>
       </c>
       <c r="AM13" s="52">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="23"/>
         <v>93.957431537171388</v>
       </c>
       <c r="AN13" s="52">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="23"/>
         <v>89.545925472995336</v>
       </c>
       <c r="AO13" s="52">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="23"/>
         <v>96.594579018749826</v>
       </c>
       <c r="AP13" s="52">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="23"/>
         <v>85.719500312519187</v>
       </c>
       <c r="BN13" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="BO13" s="58" t="s">
         <v>28</v>
       </c>
       <c r="BP13" s="51">
-        <f>SUMIF($F:$F,BO13,S:S)</f>
+        <f t="shared" si="0"/>
         <v>5.8805669770241042</v>
       </c>
       <c r="BQ13" s="51">
-        <f>COUNTIF(F:F,$BO13)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="BR13" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.1761133954048208</v>
       </c>
       <c r="BS13" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="BU13" s="59">
         <v>12</v>
       </c>
       <c r="BV13" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Ross</v>
       </c>
       <c r="BW13" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.43</v>
       </c>
       <c r="BX13" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BY13" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.43</v>
       </c>
       <c r="BZ13" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CA13" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -20101,11 +20107,11 @@
         <v>2</v>
       </c>
       <c r="C14" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="D14" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="E14" s="58" t="s">
@@ -20115,7 +20121,7 @@
         <v>26</v>
       </c>
       <c r="G14" s="58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Akshay-2015</v>
       </c>
       <c r="H14" s="58">
@@ -20152,14 +20158,14 @@
         <v>84.733686701843226</v>
       </c>
       <c r="S14" s="60">
-        <f t="shared" ref="S14:S25" si="14">(AVERAGE(H14:R14)-AVERAGE($H$13:$R$26))/(_xlfn.STDEV.P($H$13:$R$26)*_xlfn.STDEV.P(H14:R14))+(R14-AVERAGE($R$13:$R$26))/_xlfn.STDEV.P($R$13:$R$26)+(MAX($W$13:$W$26)-W14)/MAX($W$13:$W$26)</f>
+        <f t="shared" ref="S14:S25" si="24">(AVERAGE(H14:R14)-AVERAGE($H$13:$R$26))/(_xlfn.STDEV.P($H$13:$R$26)*_xlfn.STDEV.P(H14:R14))+(R14-AVERAGE($R$13:$R$26))/_xlfn.STDEV.P($R$13:$R$26)+(MAX($W$13:$W$26)-W14)/MAX($W$13:$W$26)</f>
         <v>1.441077573224546</v>
       </c>
       <c r="T14" s="58">
         <v>7.7692307692307701</v>
       </c>
       <c r="U14" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.59763313609467461</v>
       </c>
       <c r="V14" s="58">
@@ -20169,120 +20175,120 @@
         <v>2</v>
       </c>
       <c r="X14" s="58" t="str">
-        <f>IF(W14=MAX($W$13:$W$26),-1,IF(W14=1,1,""))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AA14" s="52">
         <v>12</v>
       </c>
       <c r="AB14" s="62" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA14,$D:$D,0),1)=1,"*","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC14" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA14,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Broncos Forever</v>
       </c>
       <c r="AD14" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA14,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>MattK-2018</v>
       </c>
       <c r="AE14" s="52">
-        <f>INDEX(S:S,MATCH(AA14,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.6401346176621958</v>
       </c>
       <c r="AF14" s="52">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="23"/>
         <v>90.383241473766603</v>
       </c>
       <c r="AG14" s="52">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="23"/>
         <v>92.642111461436471</v>
       </c>
       <c r="AH14" s="52">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="23"/>
         <v>92.193025530354475</v>
       </c>
       <c r="AI14" s="52">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="23"/>
         <v>94.226483999938964</v>
       </c>
       <c r="AJ14" s="52">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="23"/>
         <v>99.728810293183955</v>
       </c>
       <c r="AK14" s="52">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="23"/>
         <v>98.984607762017617</v>
       </c>
       <c r="AL14" s="52">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="23"/>
         <v>98.212342796808642</v>
       </c>
       <c r="AM14" s="52">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="23"/>
         <v>79.301196096209139</v>
       </c>
       <c r="AN14" s="52">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="23"/>
         <v>89.474505004166133</v>
       </c>
       <c r="AO14" s="52">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="23"/>
         <v>88.396981371522656</v>
       </c>
       <c r="AP14" s="52">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="23"/>
         <v>86.072870679265023</v>
       </c>
       <c r="BN14" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="BO14" s="58" t="s">
         <v>21</v>
       </c>
       <c r="BP14" s="51">
-        <f>SUMIF($F:$F,BO14,S:S)</f>
-        <v>8.7715676771611992</v>
+        <f t="shared" si="0"/>
+        <v>8.8715676771611989</v>
       </c>
       <c r="BQ14" s="51">
-        <f>COUNTIF(F:F,$BO14)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="BR14" s="51">
-        <f t="shared" si="5"/>
-        <v>1.7543135354322399</v>
+        <f t="shared" si="13"/>
+        <v>1.7743135354322397</v>
       </c>
       <c r="BS14" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BU14" s="59">
         <v>13</v>
       </c>
       <c r="BV14" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Jeff</v>
       </c>
       <c r="BW14" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.03</v>
       </c>
       <c r="BX14" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BY14" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="BZ14" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="CA14" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -20294,11 +20300,11 @@
         <v>3</v>
       </c>
       <c r="C15" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="D15" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="E15" s="58" t="s">
@@ -20308,7 +20314,7 @@
         <v>34</v>
       </c>
       <c r="G15" s="58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Sherwin-2015</v>
       </c>
       <c r="H15" s="58">
@@ -20345,14 +20351,14 @@
         <v>83.838219102116454</v>
       </c>
       <c r="S15" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.5729074215739143</v>
       </c>
       <c r="T15" s="58">
         <v>7.3076923076923066</v>
       </c>
       <c r="U15" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.56213017751479277</v>
       </c>
       <c r="V15" s="58">
@@ -20362,120 +20368,120 @@
         <v>1</v>
       </c>
       <c r="X15" s="58">
-        <f>IF(W15=MAX($W$13:$W$26),-1,IF(W15=1,1,""))</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AA15" s="52">
         <v>13</v>
       </c>
       <c r="AB15" s="62" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA15,$D:$D,0),1)=1,"*","")</f>
+        <f t="shared" si="7"/>
         <v>*</v>
       </c>
       <c r="AC15" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA15,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Flacco's  Favorite</v>
       </c>
       <c r="AD15" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA15,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Caryn-2016</v>
       </c>
       <c r="AE15" s="52">
-        <f>INDEX(S:S,MATCH(AA15,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.6354335235044672</v>
       </c>
       <c r="AF15" s="52">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="23"/>
         <v>85.281718040517461</v>
       </c>
       <c r="AG15" s="52">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="23"/>
         <v>71.207616847902869</v>
       </c>
       <c r="AH15" s="52">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="23"/>
         <v>62.565963379889354</v>
       </c>
       <c r="AI15" s="52">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="23"/>
         <v>59.166296936416657</v>
       </c>
       <c r="AJ15" s="52">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="23"/>
         <v>65.993418115329789</v>
       </c>
       <c r="AK15" s="52">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="23"/>
         <v>76.126133167428918</v>
       </c>
       <c r="AL15" s="52">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="23"/>
         <v>82.999734048318956</v>
       </c>
       <c r="AM15" s="52">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="23"/>
         <v>90.528509018172684</v>
       </c>
       <c r="AN15" s="52">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="23"/>
         <v>85.362250728657642</v>
       </c>
       <c r="AO15" s="52">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="23"/>
         <v>82.567820277140711</v>
       </c>
       <c r="AP15" s="52">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="23"/>
         <v>89.018900439733244</v>
       </c>
       <c r="BN15" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="BO15" s="58" t="s">
         <v>63</v>
       </c>
       <c r="BP15" s="51">
-        <f>SUMIF($F:$F,BO15,S:S)</f>
+        <f t="shared" si="0"/>
         <v>0.43112449246098622</v>
       </c>
       <c r="BQ15" s="51">
-        <f>COUNTIF(F:F,$BO15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BR15" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.43112449246098622</v>
       </c>
       <c r="BS15" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="BU15" s="59">
         <v>14</v>
       </c>
       <c r="BV15" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Joe</v>
       </c>
       <c r="BW15" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.28999999999999998</v>
       </c>
       <c r="BX15" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BY15" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.28999999999999998</v>
       </c>
       <c r="BZ15" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CA15" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -20487,11 +20493,11 @@
         <v>4</v>
       </c>
       <c r="C16" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>31</v>
       </c>
       <c r="D16" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="E16" s="58" t="s">
@@ -20501,7 +20507,7 @@
         <v>21</v>
       </c>
       <c r="G16" s="58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Rohit-2015</v>
       </c>
       <c r="H16" s="58">
@@ -20545,7 +20551,7 @@
         <v>6.1538461538461533</v>
       </c>
       <c r="U16" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.47337278106508873</v>
       </c>
       <c r="V16" s="58">
@@ -20555,120 +20561,120 @@
         <v>7</v>
       </c>
       <c r="X16" s="58" t="str">
-        <f>IF(W16=MAX($W$13:$W$26),-1,IF(W16=1,1,""))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AA16" s="52">
         <v>14</v>
       </c>
       <c r="AB16" s="62" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA16,$D:$D,0),1)=1,"*","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC16" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA16,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Fae Cthae</v>
       </c>
       <c r="AD16" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA16,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Sherwin-2016</v>
       </c>
       <c r="AE16" s="52">
-        <f>INDEX(S:S,MATCH(AA16,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.577080746272159</v>
       </c>
       <c r="AF16" s="52">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="23"/>
         <v>104.04749239269721</v>
       </c>
       <c r="AG16" s="52">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="23"/>
         <v>93.885019940142115</v>
       </c>
       <c r="AH16" s="52">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="23"/>
         <v>97.650105919862582</v>
       </c>
       <c r="AI16" s="52">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="23"/>
         <v>73.669756581460135</v>
       </c>
       <c r="AJ16" s="52">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="23"/>
         <v>83.111682300316374</v>
       </c>
       <c r="AK16" s="52">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="23"/>
         <v>75.216803914630816</v>
       </c>
       <c r="AL16" s="52">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="23"/>
         <v>82.635212988723865</v>
       </c>
       <c r="AM16" s="52">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="23"/>
         <v>94.749083346969798</v>
       </c>
       <c r="AN16" s="52">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="23"/>
         <v>92.072319455448124</v>
       </c>
       <c r="AO16" s="52">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="23"/>
         <v>86.940975841157865</v>
       </c>
       <c r="AP16" s="52">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="23"/>
         <v>91.505458137399131</v>
       </c>
       <c r="BN16" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="BO16" s="58" t="s">
         <v>34</v>
       </c>
       <c r="BP16" s="51">
-        <f>SUMIF($F:$F,BO16,S:S)</f>
+        <f t="shared" si="0"/>
         <v>3.1499881678460735</v>
       </c>
       <c r="BQ16" s="51">
-        <f>COUNTIF(F:F,$BO16)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BR16" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.5749940839230367</v>
       </c>
       <c r="BS16" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="BU16" s="59">
         <v>15</v>
       </c>
       <c r="BV16" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Galit</v>
       </c>
       <c r="BW16" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.33</v>
       </c>
       <c r="BX16" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BY16" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="BZ16" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CA16" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -20680,11 +20686,11 @@
         <v>5</v>
       </c>
       <c r="C17" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="D17" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E17" s="58" t="s">
@@ -20694,7 +20700,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Galit-2015</v>
       </c>
       <c r="H17" s="58">
@@ -20731,14 +20737,14 @@
         <v>79.575397783825238</v>
       </c>
       <c r="S17" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.47823114996083971</v>
       </c>
       <c r="T17" s="58">
         <v>8.3076923076923084</v>
       </c>
       <c r="U17" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.63905325443786987</v>
       </c>
       <c r="V17" s="58">
@@ -20748,120 +20754,120 @@
         <v>11</v>
       </c>
       <c r="X17" s="58" t="str">
-        <f>IF(W17=MAX($W$13:$W$26),-1,IF(W17=1,1,""))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AA17" s="52">
         <v>15</v>
       </c>
       <c r="AB17" s="62" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA17,$D:$D,0),1)=1,"*","")</f>
+        <f t="shared" si="7"/>
         <v>*</v>
       </c>
       <c r="AC17" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA17,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>HI !</v>
       </c>
       <c r="AD17" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA17,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Sherwin-2015</v>
       </c>
       <c r="AE17" s="52">
-        <f>INDEX(S:S,MATCH(AA17,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.5729074215739143</v>
       </c>
       <c r="AF17" s="52">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="23"/>
         <v>103.98785157118134</v>
       </c>
       <c r="AG17" s="52">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="23"/>
         <v>102.95986598801611</v>
       </c>
       <c r="AH17" s="52">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="23"/>
         <v>90.378923059833511</v>
       </c>
       <c r="AI17" s="52">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="23"/>
         <v>104.10800471598591</v>
       </c>
       <c r="AJ17" s="52">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="23"/>
         <v>93.996394061274003</v>
       </c>
       <c r="AK17" s="52">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="23"/>
         <v>109.58621616884078</v>
       </c>
       <c r="AL17" s="52">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="23"/>
         <v>103.81302980736275</v>
       </c>
       <c r="AM17" s="52">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="23"/>
         <v>99.778443060484392</v>
       </c>
       <c r="AN17" s="52">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="23"/>
         <v>84.343214019337097</v>
       </c>
       <c r="AO17" s="52">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="23"/>
         <v>81.27186706033514</v>
       </c>
       <c r="AP17" s="52">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="23"/>
         <v>83.838219102116454</v>
       </c>
       <c r="BN17" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="BO17" s="58" t="s">
         <v>27</v>
       </c>
       <c r="BP17" s="51">
-        <f>SUMIF($F:$F,BO17,S:S)</f>
-        <v>2.7506263235077899</v>
+        <f t="shared" si="0"/>
+        <v>2.6506263235077898</v>
       </c>
       <c r="BQ17" s="51">
-        <f>COUNTIF(F:F,$BO17)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="BR17" s="51">
-        <f t="shared" si="5"/>
-        <v>0.55012526470155798</v>
+        <f t="shared" si="13"/>
+        <v>0.53012526470155796</v>
       </c>
       <c r="BS17" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="BU17" s="59">
         <v>16</v>
       </c>
       <c r="BV17" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Ally</v>
       </c>
       <c r="BW17" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-3.11</v>
       </c>
       <c r="BX17" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="BY17" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.04</v>
       </c>
       <c r="BZ17" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CA17" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
     </row>
@@ -20873,11 +20879,11 @@
         <v>6</v>
       </c>
       <c r="C18" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="D18" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E18" s="58" t="s">
@@ -20887,7 +20893,7 @@
         <v>36</v>
       </c>
       <c r="G18" s="58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Charles-2015</v>
       </c>
       <c r="H18" s="58">
@@ -20924,14 +20930,14 @@
         <v>88.817246231360656</v>
       </c>
       <c r="S18" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.6550235805578595</v>
       </c>
       <c r="T18" s="58">
         <v>9</v>
       </c>
       <c r="U18" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="V18" s="58">
@@ -20941,85 +20947,85 @@
         <v>4</v>
       </c>
       <c r="X18" s="58" t="str">
-        <f>IF(W18=MAX($W$13:$W$26),-1,IF(W18=1,1,""))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AA18" s="52">
         <v>16</v>
       </c>
       <c r="AB18" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA18,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" ref="AB18:AB48" si="25">IF(INDEX($W:$W,MATCH($AA18,$D:$D,0),1)=1,"\/","")</f>
         <v>\/</v>
       </c>
       <c r="AC18" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA18,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Team ATAC</v>
       </c>
       <c r="AD18" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA18,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Jeff-2018</v>
       </c>
       <c r="AE18" s="52">
-        <f>INDEX(S:S,MATCH(AA18,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.5545756129789159</v>
       </c>
       <c r="AF18" s="52">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="23"/>
         <v>65.983150353120408</v>
       </c>
       <c r="AG18" s="52">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="23"/>
         <v>78.874900682324039</v>
       </c>
       <c r="AH18" s="52">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="23"/>
         <v>59.700248757908589</v>
       </c>
       <c r="AI18" s="52">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="23"/>
         <v>58.414754986579524</v>
       </c>
       <c r="AJ18" s="52">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="23"/>
         <v>66.523756655331141</v>
       </c>
       <c r="AK18" s="52">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="23"/>
         <v>71.991989152864676</v>
       </c>
       <c r="AL18" s="52">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="23"/>
         <v>74.966396903847254</v>
       </c>
       <c r="AM18" s="52">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="23"/>
         <v>81.079844139043601</v>
       </c>
       <c r="AN18" s="52">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="23"/>
         <v>78.297735804164915</v>
       </c>
       <c r="AO18" s="52">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="23"/>
         <v>87.912456417696731</v>
       </c>
       <c r="AP18" s="52">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="23"/>
         <v>83.81594911384687</v>
       </c>
       <c r="BN18" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="BO18" s="58" t="s">
         <v>32</v>
       </c>
       <c r="BP18" s="51">
-        <f>SUMIF($F:$F,BO18,S:S)</f>
+        <f t="shared" si="0"/>
         <v>-4.6779622407093271</v>
       </c>
       <c r="BQ18" s="51">
-        <f>COUNTIF(F:F,$BO18)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BR18" s="51">
@@ -21034,27 +21040,27 @@
         <v>17</v>
       </c>
       <c r="BV18" s="52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Will</v>
       </c>
       <c r="BW18" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-4.68</v>
       </c>
       <c r="BX18" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BY18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.17</v>
       </c>
       <c r="BZ18" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CA18" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>-3</v>
       </c>
     </row>
@@ -21066,11 +21072,11 @@
         <v>7</v>
       </c>
       <c r="C19" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>38</v>
       </c>
       <c r="D19" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="E19" s="58" t="s">
@@ -21080,7 +21086,7 @@
         <v>37</v>
       </c>
       <c r="G19" s="58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Mili/Vinay-2015</v>
       </c>
       <c r="H19" s="58">
@@ -21117,14 +21123,14 @@
         <v>87.461258475657345</v>
       </c>
       <c r="S19" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.3767723680342439</v>
       </c>
       <c r="T19" s="58">
         <v>5.7692307692307701</v>
       </c>
       <c r="U19" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.44378698224852076</v>
       </c>
       <c r="V19" s="58">
@@ -21134,70 +21140,70 @@
         <v>5</v>
       </c>
       <c r="X19" s="58" t="str">
-        <f>IF(W19=MAX($W$13:$W$26),-1,IF(W19=1,1,""))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AA19" s="52">
         <v>17</v>
       </c>
       <c r="AB19" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA19,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC19" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA19,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Abdullah Matata</v>
       </c>
       <c r="AD19" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA19,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Akshay-2015</v>
       </c>
       <c r="AE19" s="52">
-        <f>INDEX(S:S,MATCH(AA19,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.441077573224546</v>
       </c>
       <c r="AF19" s="52">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="23"/>
         <v>126.11973571489759</v>
       </c>
       <c r="AG19" s="52">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="23"/>
         <v>54.924740803344307</v>
       </c>
       <c r="AH19" s="52">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="23"/>
         <v>62.246484828414381</v>
       </c>
       <c r="AI19" s="52">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="23"/>
         <v>64.479416948983697</v>
       </c>
       <c r="AJ19" s="52">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="23"/>
         <v>67.779026848681781</v>
       </c>
       <c r="AK19" s="52">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="23"/>
         <v>78.096420807947709</v>
       </c>
       <c r="AL19" s="52">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="23"/>
         <v>78.677556922972997</v>
       </c>
       <c r="AM19" s="52">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="23"/>
         <v>83.86770382235413</v>
       </c>
       <c r="AN19" s="52">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="23"/>
         <v>76.255670822224417</v>
       </c>
       <c r="AO19" s="52">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="23"/>
         <v>79.820490064301353</v>
       </c>
       <c r="AP19" s="52">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="23"/>
         <v>84.733686701843226</v>
       </c>
     </row>
@@ -21209,12 +21215,12 @@
         <v>8</v>
       </c>
       <c r="C20" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>41</v>
       </c>
       <c r="D20" s="61">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <f t="shared" si="5"/>
+        <v>34</v>
       </c>
       <c r="E20" s="58" t="s">
         <v>7</v>
@@ -21223,7 +21229,7 @@
         <v>31</v>
       </c>
       <c r="G20" s="58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Jeff-2015</v>
       </c>
       <c r="H20" s="58">
@@ -21260,14 +21266,14 @@
         <v>65.718175031880293</v>
       </c>
       <c r="S20" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>-0.17611160840013201</v>
       </c>
       <c r="T20" s="58">
         <v>5.6153846153846159</v>
       </c>
       <c r="U20" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.43195266272189353</v>
       </c>
       <c r="V20" s="58">
@@ -21277,70 +21283,70 @@
         <v>9</v>
       </c>
       <c r="X20" s="58" t="str">
-        <f>IF(W20=MAX($W$13:$W$26),-1,IF(W20=1,1,""))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AA20" s="52">
         <v>18</v>
       </c>
       <c r="AB20" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA20,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC20" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA20,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Team  Suckerpunch</v>
       </c>
       <c r="AD20" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA20,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Mili/Vinay-2015</v>
       </c>
       <c r="AE20" s="52">
-        <f>INDEX(S:S,MATCH(AA20,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.3767723680342439</v>
       </c>
       <c r="AF20" s="52">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="23"/>
         <v>78.878308006958889</v>
       </c>
       <c r="AG20" s="52">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="23"/>
         <v>60.84709964458844</v>
       </c>
       <c r="AH20" s="52">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="23"/>
         <v>65.379372204147813</v>
       </c>
       <c r="AI20" s="52">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="23"/>
         <v>68.775548560835801</v>
       </c>
       <c r="AJ20" s="52">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="23"/>
         <v>75.56881590613645</v>
       </c>
       <c r="AK20" s="52">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="23"/>
         <v>70.382756944067921</v>
       </c>
       <c r="AL20" s="52">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="23"/>
         <v>75.318896531445503</v>
       </c>
       <c r="AM20" s="52">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="23"/>
         <v>74.826064297827585</v>
       </c>
       <c r="AN20" s="52">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="23"/>
         <v>86.028114633274399</v>
       </c>
       <c r="AO20" s="52">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="23"/>
         <v>90.73400662979185</v>
       </c>
       <c r="AP20" s="52">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="23"/>
         <v>87.461258475657345</v>
       </c>
     </row>
@@ -21352,12 +21358,12 @@
         <v>9</v>
       </c>
       <c r="C21" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="D21" s="61">
-        <f t="shared" si="3"/>
-        <v>42</v>
+        <f t="shared" si="5"/>
+        <v>43</v>
       </c>
       <c r="E21" s="58" t="s">
         <v>43</v>
@@ -21366,7 +21372,7 @@
         <v>32</v>
       </c>
       <c r="G21" s="58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Will-2015</v>
       </c>
       <c r="H21" s="58">
@@ -21403,14 +21409,14 @@
         <v>62.925551095767531</v>
       </c>
       <c r="S21" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>-0.49948141450816574</v>
       </c>
       <c r="T21" s="58">
         <v>6.0769230769230784</v>
       </c>
       <c r="U21" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.46745562130177526</v>
       </c>
       <c r="V21" s="58">
@@ -21420,70 +21426,70 @@
         <v>10</v>
       </c>
       <c r="X21" s="58" t="str">
-        <f>IF(W21=MAX($W$13:$W$26),-1,IF(W21=1,1,""))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AA21" s="52">
         <v>19</v>
       </c>
       <c r="AB21" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA21,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC21" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA21,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Pranay's Team</v>
       </c>
       <c r="AD21" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA21,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Pranay-2018</v>
       </c>
       <c r="AE21" s="52">
-        <f>INDEX(S:S,MATCH(AA21,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.3626799647257486</v>
       </c>
       <c r="AF21" s="52">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="23"/>
         <v>87.623426758890631</v>
       </c>
       <c r="AG21" s="52">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="23"/>
         <v>86.631659720504587</v>
       </c>
       <c r="AH21" s="52">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="23"/>
         <v>95.224855324352816</v>
       </c>
       <c r="AI21" s="52">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="23"/>
         <v>99.34287710482235</v>
       </c>
       <c r="AJ21" s="52">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="23"/>
         <v>95.667750214907841</v>
       </c>
       <c r="AK21" s="52">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="23"/>
         <v>86.008066512724412</v>
       </c>
       <c r="AL21" s="52">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="23"/>
         <v>88.310182786684109</v>
       </c>
       <c r="AM21" s="52">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="23"/>
         <v>79.149247641771296</v>
       </c>
       <c r="AN21" s="52">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="23"/>
         <v>85.594136924218446</v>
       </c>
       <c r="AO21" s="52">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="23"/>
         <v>81.267649431428211</v>
       </c>
       <c r="AP21" s="52">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="23"/>
         <v>80.995955747395527</v>
       </c>
     </row>
@@ -21495,12 +21501,12 @@
         <v>10</v>
       </c>
       <c r="C22" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>46</v>
       </c>
       <c r="D22" s="61">
-        <f t="shared" si="3"/>
-        <v>38</v>
+        <f t="shared" si="5"/>
+        <v>37</v>
       </c>
       <c r="E22" s="58" t="s">
         <v>44</v>
@@ -21509,7 +21515,7 @@
         <v>38</v>
       </c>
       <c r="G22" s="58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>MattP-2015</v>
       </c>
       <c r="H22" s="58">
@@ -21546,14 +21552,14 @@
         <v>69.73495154243858</v>
       </c>
       <c r="S22" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>-0.24530631408354286</v>
       </c>
       <c r="T22" s="58">
         <v>4.7692307692307701</v>
       </c>
       <c r="U22" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.36686390532544383</v>
       </c>
       <c r="V22" s="58">
@@ -21563,70 +21569,70 @@
         <v>12</v>
       </c>
       <c r="X22" s="58" t="str">
-        <f>IF(W22=MAX($W$13:$W$26),-1,IF(W22=1,1,""))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AA22" s="52">
         <v>20</v>
       </c>
       <c r="AB22" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA22,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC22" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA22,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Last Manning Standin</v>
       </c>
       <c r="AD22" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA22,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Pranay-2016</v>
       </c>
       <c r="AE22" s="52">
-        <f>INDEX(S:S,MATCH(AA22,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.3312049523996756</v>
       </c>
       <c r="AF22" s="52">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="23"/>
         <v>103.04583573649609</v>
       </c>
       <c r="AG22" s="52">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="23"/>
         <v>84.74894553300274</v>
       </c>
       <c r="AH22" s="52">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="23"/>
         <v>96.286891223218717</v>
       </c>
       <c r="AI22" s="52">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="23"/>
         <v>85.084786390333448</v>
       </c>
       <c r="AJ22" s="52">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="23"/>
         <v>90.879936386885319</v>
       </c>
       <c r="AK22" s="52">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="23"/>
         <v>100.88770819645798</v>
       </c>
       <c r="AL22" s="52">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="23"/>
         <v>90.51083549752444</v>
       </c>
       <c r="AM22" s="52">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="23"/>
         <v>94.743572370059752</v>
       </c>
       <c r="AN22" s="52">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="23"/>
         <v>83.030883417075074</v>
       </c>
       <c r="AO22" s="52">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="23"/>
         <v>89.45096070040654</v>
       </c>
       <c r="AP22" s="52">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="23"/>
         <v>88.843689938269961</v>
       </c>
     </row>
@@ -21638,11 +21644,11 @@
         <v>11</v>
       </c>
       <c r="C23" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="D23" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="E23" s="58" t="s">
@@ -21652,7 +21658,7 @@
         <v>39</v>
       </c>
       <c r="G23" s="58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Joe-2015</v>
       </c>
       <c r="H23" s="58">
@@ -21689,14 +21695,14 @@
         <v>62.125168358056015</v>
       </c>
       <c r="S23" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>-0.29133424751426912</v>
       </c>
       <c r="T23" s="58">
         <v>6.3076923076923084</v>
       </c>
       <c r="U23" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.48520710059171601</v>
       </c>
       <c r="V23" s="58">
@@ -21706,70 +21712,70 @@
         <v>8</v>
       </c>
       <c r="X23" s="58" t="str">
-        <f>IF(W23=MAX($W$13:$W$26),-1,IF(W23=1,1,""))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AA23" s="52">
         <v>21</v>
       </c>
       <c r="AB23" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA23,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC23" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA23,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>21 Thicc Titans</v>
       </c>
       <c r="AD23" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA23,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Mili/Vinay-2017</v>
       </c>
       <c r="AE23" s="52">
-        <f>INDEX(S:S,MATCH(AA23,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.3003958036854788</v>
       </c>
       <c r="AF23" s="52">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" ref="AF23:AP32" si="26">INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AF$2,2))</f>
         <v>45.480838655882195</v>
       </c>
       <c r="AG23" s="52">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>52.547608194650564</v>
       </c>
       <c r="AH23" s="52">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>55.026873789809073</v>
       </c>
       <c r="AI23" s="52">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>63.042125349853606</v>
       </c>
       <c r="AJ23" s="52">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>71.090958052158285</v>
       </c>
       <c r="AK23" s="52">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>66.831429178795958</v>
       </c>
       <c r="AL23" s="52">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>77.994715210885957</v>
       </c>
       <c r="AM23" s="52">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>78.463234308305019</v>
       </c>
       <c r="AN23" s="52">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>77.417914143122516</v>
       </c>
       <c r="AO23" s="52">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>87.277752303761474</v>
       </c>
       <c r="AP23" s="52">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>87.277752303761474</v>
       </c>
     </row>
@@ -21781,11 +21787,11 @@
         <v>12</v>
       </c>
       <c r="C24" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>39</v>
       </c>
       <c r="D24" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="E24" s="58" t="s">
@@ -21795,7 +21801,7 @@
         <v>27</v>
       </c>
       <c r="G24" s="58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Tony-2015</v>
       </c>
       <c r="H24" s="58">
@@ -21832,14 +21838,14 @@
         <v>45.839290597591798</v>
       </c>
       <c r="S24" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>-1.6813045998357476</v>
       </c>
       <c r="T24" s="58">
         <v>5.7692307692307692</v>
       </c>
       <c r="U24" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.4437869822485207</v>
       </c>
       <c r="V24" s="58">
@@ -21849,70 +21855,70 @@
         <v>13</v>
       </c>
       <c r="X24" s="58" t="str">
-        <f>IF(W24=MAX($W$13:$W$26),-1,IF(W24=1,1,""))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AA24" s="52">
         <v>22</v>
       </c>
       <c r="AB24" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA24,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC24" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA24,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Gotta Catch Jamaal!</v>
       </c>
       <c r="AD24" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA24,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Tony-2016</v>
       </c>
       <c r="AE24" s="52">
-        <f>INDEX(S:S,MATCH(AA24,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.1960456367309227</v>
       </c>
       <c r="AF24" s="52">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>105.05708799823135</v>
       </c>
       <c r="AG24" s="52">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>91.586349114063978</v>
       </c>
       <c r="AH24" s="52">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>99.599497354109175</v>
       </c>
       <c r="AI24" s="52">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>96.673420911520552</v>
       </c>
       <c r="AJ24" s="52">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>86.537240201916163</v>
       </c>
       <c r="AK24" s="52">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>73.729912883610396</v>
       </c>
       <c r="AL24" s="52">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>67.742328898449458</v>
       </c>
       <c r="AM24" s="52">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>76.256486471009424</v>
       </c>
       <c r="AN24" s="52">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>82.344587684958611</v>
       </c>
       <c r="AO24" s="52">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>84.451487140924286</v>
       </c>
       <c r="AP24" s="52">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>90.159563874519463</v>
       </c>
     </row>
@@ -21924,12 +21930,12 @@
         <v>13</v>
       </c>
       <c r="C25" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>55</v>
       </c>
       <c r="D25" s="61">
-        <f t="shared" si="3"/>
-        <v>37</v>
+        <f t="shared" si="5"/>
+        <v>36</v>
       </c>
       <c r="E25" s="58" t="s">
         <v>45</v>
@@ -21938,7 +21944,7 @@
         <v>25</v>
       </c>
       <c r="G25" s="58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Caryn-2015</v>
       </c>
       <c r="H25" s="58">
@@ -21975,14 +21981,14 @@
         <v>60.443296218208744</v>
       </c>
       <c r="S25" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>-0.22721006571792801</v>
       </c>
       <c r="T25" s="58">
         <v>3.1538461538461533</v>
       </c>
       <c r="U25" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.24260355029585795</v>
       </c>
       <c r="V25" s="58">
@@ -21992,70 +21998,70 @@
         <v>6</v>
       </c>
       <c r="X25" s="58" t="str">
-        <f>IF(W25=MAX($W$13:$W$26),-1,IF(W25=1,1,""))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AA25" s="52">
         <v>23</v>
       </c>
       <c r="AB25" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA25,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC25" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA25,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Elite Tostitos</v>
       </c>
       <c r="AD25" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA25,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Caryn-2017</v>
       </c>
       <c r="AE25" s="52">
-        <f>INDEX(S:S,MATCH(AA25,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.0219229146962459</v>
       </c>
       <c r="AF25" s="52">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>67.268724955213614</v>
       </c>
       <c r="AG25" s="52">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>72.09636564280062</v>
       </c>
       <c r="AH25" s="52">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>81.905210624824022</v>
       </c>
       <c r="AI25" s="52">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>83.066460177711349</v>
       </c>
       <c r="AJ25" s="52">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>73.939745523335162</v>
       </c>
       <c r="AK25" s="52">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>85.72856219455501</v>
       </c>
       <c r="AL25" s="52">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>80.510971148524177</v>
       </c>
       <c r="AM25" s="52">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>75.406888491056932</v>
       </c>
       <c r="AN25" s="52">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>82.127602055420496</v>
       </c>
       <c r="AO25" s="52">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>83.286824713923764</v>
       </c>
       <c r="AP25" s="52">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>83.286824713923764</v>
       </c>
     </row>
@@ -22067,11 +22073,11 @@
         <v>14</v>
       </c>
       <c r="C26" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>44</v>
       </c>
       <c r="D26" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="E26" s="58" t="s">
@@ -22081,7 +22087,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Ally-2015</v>
       </c>
       <c r="H26" s="58">
@@ -22125,7 +22131,7 @@
         <v>4.9230769230769234</v>
       </c>
       <c r="U26" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.37869822485207105</v>
       </c>
       <c r="V26" s="58">
@@ -22135,70 +22141,70 @@
         <v>14</v>
       </c>
       <c r="X26" s="58">
-        <f>IF(W26=MAX($W$13:$W$26),-1,IF(W26=1,1,""))</f>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="AA26" s="52">
         <v>24</v>
       </c>
       <c r="AB26" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA26,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC26" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA26,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Welker? I Hardly Know Her</v>
       </c>
       <c r="AD26" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA26,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Tony-2014</v>
       </c>
       <c r="AE26" s="52">
-        <f>INDEX(S:S,MATCH(AA26,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>1.0206632708815659</v>
       </c>
       <c r="AF26" s="52">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>89.008280202803007</v>
       </c>
       <c r="AG26" s="52">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>93.294946249476325</v>
       </c>
       <c r="AH26" s="52">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>78.59977211760345</v>
       </c>
       <c r="AI26" s="52">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>67.186433964027856</v>
       </c>
       <c r="AJ26" s="52">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>75.830223249896903</v>
       </c>
       <c r="AK26" s="52">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>80.742458689069807</v>
       </c>
       <c r="AL26" s="52">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>88.343012826506651</v>
       </c>
       <c r="AM26" s="52">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>88.819746929980084</v>
       </c>
       <c r="AN26" s="52">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>84.367530077986274</v>
       </c>
       <c r="AO26" s="52">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>95.786967514018315</v>
       </c>
       <c r="AP26" s="52">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>91.594250747750635</v>
       </c>
     </row>
@@ -22210,11 +22216,11 @@
         <v>1</v>
       </c>
       <c r="C27" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="D27" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E27" s="60" t="s">
@@ -22224,7 +22230,7 @@
         <v>21</v>
       </c>
       <c r="G27" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Rohit-2016</v>
       </c>
       <c r="H27" s="60">
@@ -22268,7 +22274,7 @@
         <v>9.1818181818181799</v>
       </c>
       <c r="U27" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.70629370629370614</v>
       </c>
       <c r="V27" s="60">
@@ -22278,7 +22284,7 @@
         <v>2</v>
       </c>
       <c r="X27" s="60" t="str">
-        <f>IF(W27=MAX($W$27:$W$38),-1,IF(W27=1,1,""))</f>
+        <f t="shared" ref="X27:X38" si="27">IF(W27=MAX($W$27:$W$38),-1,IF(W27=1,1,""))</f>
         <v/>
       </c>
       <c r="Y27" s="51">
@@ -22289,63 +22295,63 @@
         <v>25</v>
       </c>
       <c r="AB27" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA27,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC27" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA27,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Team Rao</v>
       </c>
       <c r="AD27" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA27,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Pranay-2014</v>
       </c>
       <c r="AE27" s="52">
-        <f>INDEX(S:S,MATCH(AA27,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>0.94481008292727364</v>
       </c>
       <c r="AF27" s="52">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>72.067611408199639</v>
       </c>
       <c r="AG27" s="52">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>76.834902652357115</v>
       </c>
       <c r="AH27" s="52">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>87.167566733683429</v>
       </c>
       <c r="AI27" s="52">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>85.037643039457947</v>
       </c>
       <c r="AJ27" s="52">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>87.567394790978867</v>
       </c>
       <c r="AK27" s="52">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>94.20954159282519</v>
       </c>
       <c r="AL27" s="52">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>89.569033368141291</v>
       </c>
       <c r="AM27" s="52">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>95.623339468179068</v>
       </c>
       <c r="AN27" s="52">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>81.289039034222625</v>
       </c>
       <c r="AO27" s="52">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>86.106871880484761</v>
       </c>
       <c r="AP27" s="52">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>88.455403734703609</v>
       </c>
     </row>
@@ -22357,11 +22363,11 @@
         <v>2</v>
       </c>
       <c r="C28" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="D28" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="E28" s="60" t="s">
@@ -22371,7 +22377,7 @@
         <v>34</v>
       </c>
       <c r="G28" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Sherwin-2016</v>
       </c>
       <c r="H28" s="60">
@@ -22408,14 +22414,14 @@
         <v>91.505458137399131</v>
       </c>
       <c r="S28" s="60">
-        <f t="shared" ref="S28:S38" si="15">(AVERAGE(H28:R28)-AVERAGE($H$27:$R$38))/(_xlfn.STDEV.P($H$27:$R$38)*_xlfn.STDEV.P(H28:R28))+(R28-AVERAGE($R$27:$R$38))/_xlfn.STDEV.P($R$27:$R$38)+(MAX($W$27:$W$38)-W28)/MAX($W$27:$W$38)</f>
+        <f t="shared" ref="S28:S38" si="28">(AVERAGE(H28:R28)-AVERAGE($H$27:$R$38))/(_xlfn.STDEV.P($H$27:$R$38)*_xlfn.STDEV.P(H28:R28))+(R28-AVERAGE($R$27:$R$38))/_xlfn.STDEV.P($R$27:$R$38)+(MAX($W$27:$W$38)-W28)/MAX($W$27:$W$38)</f>
         <v>1.577080746272159</v>
       </c>
       <c r="T28" s="60">
         <v>8.3636363636363633</v>
       </c>
       <c r="U28" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.64335664335664333</v>
       </c>
       <c r="V28" s="60">
@@ -22425,70 +22431,70 @@
         <v>5</v>
       </c>
       <c r="X28" s="60" t="str">
-        <f>IF(W28=MAX($W$27:$W$38),-1,IF(W28=1,1,""))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AA28" s="52">
         <v>26</v>
       </c>
       <c r="AB28" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA28,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC28" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA28,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Team Moyer</v>
       </c>
       <c r="AD28" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA28,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Ally-2014</v>
       </c>
       <c r="AE28" s="52">
-        <f>INDEX(S:S,MATCH(AA28,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>0.55904118319066853</v>
       </c>
       <c r="AF28" s="52">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>75.924015510311591</v>
       </c>
       <c r="AG28" s="52">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>82.494639617844058</v>
       </c>
       <c r="AH28" s="52">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>88.115459611858569</v>
       </c>
       <c r="AI28" s="52">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>93.370857248637392</v>
       </c>
       <c r="AJ28" s="52">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>77.90594604287287</v>
       </c>
       <c r="AK28" s="52">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>86.584728498601478</v>
       </c>
       <c r="AL28" s="52">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>89.930273775492864</v>
       </c>
       <c r="AM28" s="52">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>88.285858177257907</v>
       </c>
       <c r="AN28" s="52">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>85.1371038596034</v>
       </c>
       <c r="AO28" s="52">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>80.687973777060023</v>
       </c>
       <c r="AP28" s="52">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>85.3755746604009</v>
       </c>
     </row>
@@ -22500,11 +22506,11 @@
         <v>3</v>
       </c>
       <c r="C29" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="D29" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="E29" s="60" t="s">
@@ -22514,7 +22520,7 @@
         <v>38</v>
       </c>
       <c r="G29" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>MattP-2016</v>
       </c>
       <c r="H29" s="60">
@@ -22551,14 +22557,14 @@
         <v>90.637548236234466</v>
       </c>
       <c r="S29" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1.6708186390339921</v>
       </c>
       <c r="T29" s="60">
         <v>9</v>
       </c>
       <c r="U29" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="V29" s="60">
@@ -22568,70 +22574,70 @@
         <v>4</v>
       </c>
       <c r="X29" s="60" t="str">
-        <f>IF(W29=MAX($W$27:$W$38),-1,IF(W29=1,1,""))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AA29" s="52">
         <v>27</v>
       </c>
       <c r="AB29" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA29,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC29" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA29,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>unBEATable at HOME</v>
       </c>
       <c r="AD29" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA29,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Jeff-2017</v>
       </c>
       <c r="AE29" s="52">
-        <f>INDEX(S:S,MATCH(AA29,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>0.53747973769366109</v>
       </c>
       <c r="AF29" s="52">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>84.251451445455629</v>
       </c>
       <c r="AG29" s="52">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>89.237509783867566</v>
       </c>
       <c r="AH29" s="52">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>85.140775974329671</v>
       </c>
       <c r="AI29" s="52">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>71.844532062210334</v>
       </c>
       <c r="AJ29" s="52">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>81.532029643026434</v>
       </c>
       <c r="AK29" s="52">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>74.696507291768299</v>
       </c>
       <c r="AL29" s="52">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>42.065996616910283</v>
       </c>
       <c r="AM29" s="52">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>51.452939475731775</v>
       </c>
       <c r="AN29" s="52">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>71.609735933644998</v>
       </c>
       <c r="AO29" s="52">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>80.667554742777895</v>
       </c>
       <c r="AP29" s="52">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>80.667554742777895</v>
       </c>
     </row>
@@ -22643,11 +22649,11 @@
         <v>4</v>
       </c>
       <c r="C30" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="D30" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="E30" s="60" t="s">
@@ -22657,7 +22663,7 @@
         <v>27</v>
       </c>
       <c r="G30" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Tony-2016</v>
       </c>
       <c r="H30" s="60">
@@ -22694,14 +22700,14 @@
         <v>90.159563874519463</v>
       </c>
       <c r="S30" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1.1960456367309227</v>
       </c>
       <c r="T30" s="60">
         <v>6.8181818181818175</v>
       </c>
       <c r="U30" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.52447552447552437</v>
       </c>
       <c r="V30" s="60">
@@ -22711,70 +22717,70 @@
         <v>8</v>
       </c>
       <c r="X30" s="60" t="str">
-        <f>IF(W30=MAX($W$27:$W$38),-1,IF(W30=1,1,""))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AA30" s="52">
         <v>28</v>
       </c>
       <c r="AB30" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA30,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC30" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA30,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>The Life of Julio</v>
       </c>
       <c r="AD30" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA30,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Akshay-2016</v>
       </c>
       <c r="AE30" s="52">
-        <f>INDEX(S:S,MATCH(AA30,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>0.50257154822400874</v>
       </c>
       <c r="AF30" s="52">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>64.894159671707385</v>
       </c>
       <c r="AG30" s="52">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>84.281668536018628</v>
       </c>
       <c r="AH30" s="52">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>69.031398832222294</v>
       </c>
       <c r="AI30" s="52">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>76.886825194829186</v>
       </c>
       <c r="AJ30" s="52">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>90.684713446751601</v>
       </c>
       <c r="AK30" s="52">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>80.170970186588065</v>
       </c>
       <c r="AL30" s="52">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>90.031838325742015</v>
       </c>
       <c r="AM30" s="52">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>73.399765652084767</v>
       </c>
       <c r="AN30" s="52">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>77.268782257590487</v>
       </c>
       <c r="AO30" s="52">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>82.593949967747506</v>
       </c>
       <c r="AP30" s="52">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>77.071504494211467</v>
       </c>
     </row>
@@ -22786,11 +22792,11 @@
         <v>5</v>
       </c>
       <c r="C31" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="D31" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="E31" s="60" t="s">
@@ -22800,7 +22806,7 @@
         <v>25</v>
       </c>
       <c r="G31" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Caryn-2016</v>
       </c>
       <c r="H31" s="60">
@@ -22837,14 +22843,14 @@
         <v>89.018900439733244</v>
       </c>
       <c r="S31" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1.6354335235044672</v>
       </c>
       <c r="T31" s="60">
         <v>7.545454545454545</v>
       </c>
       <c r="U31" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.58041958041958042</v>
       </c>
       <c r="V31" s="60">
@@ -22854,70 +22860,70 @@
         <v>1</v>
       </c>
       <c r="X31" s="60">
-        <f>IF(W31=MAX($W$27:$W$38),-1,IF(W31=1,1,""))</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AA31" s="52">
         <v>29</v>
       </c>
       <c r="AB31" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA31,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC31" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA31,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>I'm About To Go H.A.M</v>
       </c>
       <c r="AD31" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA31,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Muhamad-2014</v>
       </c>
       <c r="AE31" s="52">
-        <f>INDEX(S:S,MATCH(AA31,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>0.49043322153258229</v>
       </c>
       <c r="AF31" s="52">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>39.719259479749425</v>
       </c>
       <c r="AG31" s="52">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>60.37109632012222</v>
       </c>
       <c r="AH31" s="52">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>67.311053961314883</v>
       </c>
       <c r="AI31" s="52">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>72.913567509173959</v>
       </c>
       <c r="AJ31" s="52">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>82.168731571951014</v>
       </c>
       <c r="AK31" s="52">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>84.498751571610129</v>
       </c>
       <c r="AL31" s="52">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>82.559434595804476</v>
       </c>
       <c r="AM31" s="52">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>90.719866368388466</v>
       </c>
       <c r="AN31" s="52">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>71.698770707433937</v>
       </c>
       <c r="AO31" s="52">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>87.994750368120208</v>
       </c>
       <c r="AP31" s="52">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>88.840292637018194</v>
       </c>
     </row>
@@ -22929,11 +22935,11 @@
         <v>6</v>
       </c>
       <c r="C32" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="D32" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="E32" s="60" t="s">
@@ -22943,7 +22949,7 @@
         <v>28</v>
       </c>
       <c r="G32" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Pranay-2016</v>
       </c>
       <c r="H32" s="60">
@@ -22980,14 +22986,14 @@
         <v>88.843689938269961</v>
       </c>
       <c r="S32" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1.3312049523996756</v>
       </c>
       <c r="T32" s="60">
         <v>7.9090909090909092</v>
       </c>
       <c r="U32" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.60839160839160844</v>
       </c>
       <c r="V32" s="60">
@@ -22997,70 +23003,70 @@
         <v>6</v>
       </c>
       <c r="X32" s="60" t="str">
-        <f>IF(W32=MAX($W$27:$W$38),-1,IF(W32=1,1,""))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AA32" s="52">
         <v>30</v>
       </c>
       <c r="AB32" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA32,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC32" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA32,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>All's Good</v>
       </c>
       <c r="AD32" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA32,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Galit-2015</v>
       </c>
       <c r="AE32" s="52">
-        <f>INDEX(S:S,MATCH(AA32,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>0.47823114996083971</v>
       </c>
       <c r="AF32" s="52">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>84.516465874821847</v>
       </c>
       <c r="AG32" s="52">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>84.882454536962229</v>
       </c>
       <c r="AH32" s="52">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>86.064760061130301</v>
       </c>
       <c r="AI32" s="52">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>78.75210115621222</v>
       </c>
       <c r="AJ32" s="52">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>66.956497040088195</v>
       </c>
       <c r="AK32" s="52">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>66.437462920952214</v>
       </c>
       <c r="AL32" s="52">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>78.228638843867103</v>
       </c>
       <c r="AM32" s="52">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>63.389129988530456</v>
       </c>
       <c r="AN32" s="52">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>59.173194556058334</v>
       </c>
       <c r="AO32" s="52">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>72.865296900426202</v>
       </c>
       <c r="AP32" s="52">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>79.575397783825238</v>
       </c>
     </row>
@@ -23072,11 +23078,11 @@
         <v>7</v>
       </c>
       <c r="C33" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="D33" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="E33" s="60" t="s">
@@ -23086,7 +23092,7 @@
         <v>37</v>
       </c>
       <c r="G33" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Mili/Vinay-2016</v>
       </c>
       <c r="H33" s="60">
@@ -23123,14 +23129,14 @@
         <v>82.369211492149375</v>
       </c>
       <c r="S33" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>0.36844061309093479</v>
       </c>
       <c r="T33" s="60">
         <v>6.8181818181818183</v>
       </c>
       <c r="U33" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.52447552447552448</v>
       </c>
       <c r="V33" s="60">
@@ -23140,70 +23146,70 @@
         <v>10</v>
       </c>
       <c r="X33" s="60" t="str">
-        <f>IF(W33=MAX($W$27:$W$38),-1,IF(W33=1,1,""))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AA33" s="52">
         <v>31</v>
       </c>
       <c r="AB33" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA33,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC33" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA33,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Los Angeles Butt Men</v>
       </c>
       <c r="AD33" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA33,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Ross-2017</v>
       </c>
       <c r="AE33" s="52">
-        <f>INDEX(S:S,MATCH(AA33,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>0.43112449246098622</v>
       </c>
       <c r="AF33" s="52">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" ref="AF33:AP42" si="29">INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AF$2,2))</f>
         <v>99.341015645451961</v>
       </c>
       <c r="AG33" s="52">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="29"/>
         <v>86.561931443849318</v>
       </c>
       <c r="AH33" s="52">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="29"/>
         <v>93.884102960667917</v>
       </c>
       <c r="AI33" s="52">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="29"/>
         <v>94.80140044530512</v>
       </c>
       <c r="AJ33" s="52">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="29"/>
         <v>75.071780416606259</v>
       </c>
       <c r="AK33" s="52">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="29"/>
         <v>80.908378121518837</v>
       </c>
       <c r="AL33" s="52">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="29"/>
         <v>83.27006219726087</v>
       </c>
       <c r="AM33" s="52">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="29"/>
         <v>77.574908879153526</v>
       </c>
       <c r="AN33" s="52">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="29"/>
         <v>81.369718373061914</v>
       </c>
       <c r="AO33" s="52">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="29"/>
         <v>82.738647110983152</v>
       </c>
       <c r="AP33" s="52">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="29"/>
         <v>82.738647110983152</v>
       </c>
     </row>
@@ -23215,11 +23221,11 @@
         <v>8</v>
       </c>
       <c r="C34" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="D34" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="E34" s="60" t="s">
@@ -23229,7 +23235,7 @@
         <v>26</v>
       </c>
       <c r="G34" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Akshay-2016</v>
       </c>
       <c r="H34" s="60">
@@ -23266,14 +23272,14 @@
         <v>77.071504494211467</v>
       </c>
       <c r="S34" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>0.50257154822400874</v>
       </c>
       <c r="T34" s="60">
         <v>6.6363636363636376</v>
       </c>
       <c r="U34" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.51048951048951063</v>
       </c>
       <c r="V34" s="60">
@@ -23283,70 +23289,70 @@
         <v>3</v>
       </c>
       <c r="X34" s="60" t="str">
-        <f>IF(W34=MAX($W$27:$W$38),-1,IF(W34=1,1,""))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AA34" s="52">
         <v>32</v>
       </c>
       <c r="AB34" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA34,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC34" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA34,$D:$D,0),2)</f>
+        <f t="shared" si="8"/>
         <v>Team  Suckerpunch</v>
       </c>
       <c r="AD34" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA34,$D:$D,0),4)</f>
+        <f t="shared" si="9"/>
         <v>Mili/Vinay-2016</v>
       </c>
       <c r="AE34" s="52">
-        <f>INDEX(S:S,MATCH(AA34,D:D,0))</f>
+        <f t="shared" si="10"/>
         <v>0.36844061309093479</v>
       </c>
       <c r="AF34" s="52">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="29"/>
         <v>88.548344803285204</v>
       </c>
       <c r="AG34" s="52">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="29"/>
         <v>91.534359509704544</v>
       </c>
       <c r="AH34" s="52">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="29"/>
         <v>96.14430859425687</v>
       </c>
       <c r="AI34" s="52">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="29"/>
         <v>103.76468004512624</v>
       </c>
       <c r="AJ34" s="52">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="29"/>
         <v>84.684136418311027</v>
       </c>
       <c r="AK34" s="52">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="29"/>
         <v>60.629116594308016</v>
       </c>
       <c r="AL34" s="52">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="29"/>
         <v>73.003296771528966</v>
       </c>
       <c r="AM34" s="52">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="29"/>
         <v>69.405665386096089</v>
       </c>
       <c r="AN34" s="52">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="29"/>
         <v>76.819969407819102</v>
       </c>
       <c r="AO34" s="52">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="29"/>
         <v>75.855178443536346</v>
       </c>
       <c r="AP34" s="52">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="29"/>
         <v>82.369211492149375</v>
       </c>
     </row>
@@ -23358,11 +23364,11 @@
         <v>9</v>
       </c>
       <c r="C35" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="D35" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="E35" s="60" t="s">
@@ -23372,7 +23378,7 @@
         <v>22</v>
       </c>
       <c r="G35" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Galit-2016</v>
       </c>
       <c r="H35" s="60">
@@ -23409,14 +23415,14 @@
         <v>66.530454147995641</v>
       </c>
       <c r="S35" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-0.75525672788096299</v>
       </c>
       <c r="T35" s="60">
         <v>4.0909090909090908</v>
       </c>
       <c r="U35" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.31468531468531469</v>
       </c>
       <c r="V35" s="60">
@@ -23426,70 +23432,70 @@
         <v>7</v>
       </c>
       <c r="X35" s="60" t="str">
-        <f>IF(W35=MAX($W$27:$W$38),-1,IF(W35=1,1,""))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AA35" s="52">
         <v>33</v>
       </c>
       <c r="AB35" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA35,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC35" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA35,$D:$D,0),2)</f>
+        <f t="shared" ref="AC35:AC58" si="30">INDEX($D:$R,MATCH($AA35,$D:$D,0),2)</f>
         <v>My Cousin Vinatieri</v>
       </c>
       <c r="AD35" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA35,$D:$D,0),4)</f>
+        <f t="shared" ref="AD35:AD58" si="31">INDEX($D:$R,MATCH($AA35,$D:$D,0),4)</f>
         <v>Akshay-2017</v>
       </c>
       <c r="AE35" s="52">
-        <f>INDEX(S:S,MATCH(AA35,D:D,0))</f>
+        <f t="shared" ref="AE35:AE58" si="32">INDEX(S:S,MATCH(AA35,D:D,0))</f>
         <v>-0.13731368236251484</v>
       </c>
       <c r="AF35" s="52">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="29"/>
         <v>96.822323866328105</v>
       </c>
       <c r="AG35" s="52">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="29"/>
         <v>70.529112918712741</v>
       </c>
       <c r="AH35" s="52">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="29"/>
         <v>82.270442217735166</v>
       </c>
       <c r="AI35" s="52">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="29"/>
         <v>92.171491524358132</v>
       </c>
       <c r="AJ35" s="52">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="29"/>
         <v>73.886342912824347</v>
       </c>
       <c r="AK35" s="52">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="29"/>
         <v>81.655874236137393</v>
       </c>
       <c r="AL35" s="52">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="29"/>
         <v>84.564950021570453</v>
       </c>
       <c r="AM35" s="52">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="29"/>
         <v>70.361868742438503</v>
       </c>
       <c r="AN35" s="52">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="29"/>
         <v>75.724651889825651</v>
       </c>
       <c r="AO35" s="52">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="29"/>
         <v>75.845837810213993</v>
       </c>
       <c r="AP35" s="52">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="29"/>
         <v>75.845837810213993</v>
       </c>
     </row>
@@ -23501,11 +23507,11 @@
         <v>10</v>
       </c>
       <c r="C36" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="D36" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="E36" s="60" t="s">
@@ -23515,7 +23521,7 @@
         <v>31</v>
       </c>
       <c r="G36" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Jeff-2016</v>
       </c>
       <c r="H36" s="60">
@@ -23552,14 +23558,14 @@
         <v>65.909173086044291</v>
       </c>
       <c r="S36" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-1.1502039822164289</v>
       </c>
       <c r="T36" s="60">
         <v>4.0909090909090899</v>
       </c>
       <c r="U36" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.31468531468531463</v>
       </c>
       <c r="V36" s="60">
@@ -23569,71 +23575,71 @@
         <v>11</v>
       </c>
       <c r="X36" s="60" t="str">
-        <f>IF(W36=MAX($W$27:$W$38),-1,IF(W36=1,1,""))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AA36" s="52">
         <v>34</v>
       </c>
       <c r="AB36" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA36,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC36" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA36,$D:$D,0),2)</f>
-        <v>Rolls Royces</v>
+        <f t="shared" si="30"/>
+        <v>WINTER IS NEVER COMING</v>
       </c>
       <c r="AD36" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA36,$D:$D,0),4)</f>
-        <v>Tony-2018</v>
+        <f t="shared" si="31"/>
+        <v>Jeff-2015</v>
       </c>
       <c r="AE36" s="52">
-        <f>INDEX(S:S,MATCH(AA36,D:D,0))</f>
-        <v>-0.15196644504741472</v>
+        <f t="shared" si="32"/>
+        <v>-0.17611160840013201</v>
       </c>
       <c r="AF36" s="52">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AF$2,2))</f>
-        <v>69.525074981237211</v>
+        <f t="shared" si="29"/>
+        <v>73.315740528415617</v>
       </c>
       <c r="AG36" s="52">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AG$2,2))</f>
-        <v>80.880705426349778</v>
+        <f t="shared" si="29"/>
+        <v>76.803515487789127</v>
       </c>
       <c r="AH36" s="52">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AH$2,2))</f>
-        <v>64.623397281629977</v>
+        <f t="shared" si="29"/>
+        <v>88.612487233196589</v>
       </c>
       <c r="AI36" s="52">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AI$2,2))</f>
-        <v>64.629203113696079</v>
+        <f t="shared" si="29"/>
+        <v>83.714265162522622</v>
       </c>
       <c r="AJ36" s="52">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AJ$2,2))</f>
-        <v>60.961699915591232</v>
+        <f t="shared" si="29"/>
+        <v>94.173098361299822</v>
       </c>
       <c r="AK36" s="52">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AK$2,2))</f>
-        <v>62.779920027210252</v>
+        <f t="shared" si="29"/>
+        <v>84.567406073747094</v>
       </c>
       <c r="AL36" s="52">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AL$2,2))</f>
-        <v>73.937858393291648</v>
+        <f t="shared" si="29"/>
+        <v>71.985656001533414</v>
       </c>
       <c r="AM36" s="52">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AM$2,2))</f>
-        <v>80.795703466117232</v>
+        <f t="shared" si="29"/>
+        <v>67.228322743757289</v>
       </c>
       <c r="AN36" s="52">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AN$2,2))</f>
-        <v>88.391675635038311</v>
+        <f t="shared" si="29"/>
+        <v>68.828109891853302</v>
       </c>
       <c r="AO36" s="52">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AO$2,2))</f>
-        <v>86.69153310162153</v>
+        <f t="shared" si="29"/>
+        <v>72.214017764586103</v>
       </c>
       <c r="AP36" s="52">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AP$2,2))</f>
-        <v>72.914717839534347</v>
+        <f t="shared" si="29"/>
+        <v>65.718175031880293</v>
       </c>
     </row>
     <row r="37" spans="1:55" x14ac:dyDescent="0.25">
@@ -23644,11 +23650,11 @@
         <v>11</v>
       </c>
       <c r="C37" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="D37" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="E37" s="60" t="s">
@@ -23658,7 +23664,7 @@
         <v>36</v>
       </c>
       <c r="G37" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Charles-2016</v>
       </c>
       <c r="H37" s="60">
@@ -23695,14 +23701,14 @@
         <v>63.43127649513491</v>
       </c>
       <c r="S37" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-1.2057093814899333</v>
       </c>
       <c r="T37" s="60">
         <v>4.3636363636363633</v>
       </c>
       <c r="U37" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.33566433566433562</v>
       </c>
       <c r="V37" s="60">
@@ -23712,71 +23718,71 @@
         <v>9</v>
       </c>
       <c r="X37" s="60" t="str">
-        <f>IF(W37=MAX($W$27:$W$38),-1,IF(W37=1,1,""))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AA37" s="52">
         <v>35</v>
       </c>
       <c r="AB37" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA37,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC37" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA37,$D:$D,0),2)</f>
-        <v>WINTER IS NEVER COMING</v>
+        <f t="shared" si="30"/>
+        <v>Galit's Team</v>
       </c>
       <c r="AD37" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA37,$D:$D,0),4)</f>
-        <v>Jeff-2015</v>
+        <f t="shared" si="31"/>
+        <v>Galit-2018</v>
       </c>
       <c r="AE37" s="52">
-        <f>INDEX(S:S,MATCH(AA37,D:D,0))</f>
-        <v>-0.17611160840013201</v>
+        <f t="shared" si="32"/>
+        <v>-0.19646761502875809</v>
       </c>
       <c r="AF37" s="52">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AF$2,2))</f>
-        <v>73.315740528415617</v>
+        <f t="shared" si="29"/>
+        <v>76.961964427267617</v>
       </c>
       <c r="AG37" s="52">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AG$2,2))</f>
-        <v>76.803515487789127</v>
+        <f t="shared" si="29"/>
+        <v>90.744831926661334</v>
       </c>
       <c r="AH37" s="52">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AH$2,2))</f>
-        <v>88.612487233196589</v>
+        <f t="shared" si="29"/>
+        <v>77.025899335914914</v>
       </c>
       <c r="AI37" s="52">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AI$2,2))</f>
-        <v>83.714265162522622</v>
+        <f t="shared" si="29"/>
+        <v>93.881136550201305</v>
       </c>
       <c r="AJ37" s="52">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AJ$2,2))</f>
-        <v>94.173098361299822</v>
+        <f t="shared" si="29"/>
+        <v>97.162957863596844</v>
       </c>
       <c r="AK37" s="52">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AK$2,2))</f>
-        <v>84.567406073747094</v>
+        <f t="shared" si="29"/>
+        <v>78.328739015014079</v>
       </c>
       <c r="AL37" s="52">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AL$2,2))</f>
-        <v>71.985656001533414</v>
+        <f t="shared" si="29"/>
+        <v>78.315020367634261</v>
       </c>
       <c r="AM37" s="52">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AM$2,2))</f>
-        <v>67.228322743757289</v>
+        <f t="shared" si="29"/>
+        <v>83.135689783957957</v>
       </c>
       <c r="AN37" s="52">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AN$2,2))</f>
-        <v>68.828109891853302</v>
+        <f t="shared" si="29"/>
+        <v>90.425026891449889</v>
       </c>
       <c r="AO37" s="52">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AO$2,2))</f>
-        <v>72.214017764586103</v>
+        <f t="shared" si="29"/>
+        <v>83.966370203788728</v>
       </c>
       <c r="AP37" s="52">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AP$2,2))</f>
-        <v>65.718175031880293</v>
+        <f t="shared" si="29"/>
+        <v>67.78880616063816</v>
       </c>
     </row>
     <row r="38" spans="1:55" x14ac:dyDescent="0.25">
@@ -23787,11 +23793,11 @@
         <v>12</v>
       </c>
       <c r="C38" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>56</v>
       </c>
       <c r="D38" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="E38" s="60" t="s">
@@ -23801,7 +23807,7 @@
         <v>32</v>
       </c>
       <c r="G38" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Will-2016</v>
       </c>
       <c r="H38" s="60">
@@ -23838,14 +23844,14 @@
         <v>59.976975175270852</v>
       </c>
       <c r="S38" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-1.8711132274081812</v>
       </c>
       <c r="T38" s="60">
         <v>3.0909090909090904</v>
       </c>
       <c r="U38" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.23776223776223773</v>
       </c>
       <c r="V38" s="60">
@@ -23855,71 +23861,71 @@
         <v>12</v>
       </c>
       <c r="X38" s="60">
-        <f>IF(W38=MAX($W$27:$W$38),-1,IF(W38=1,1,""))</f>
+        <f t="shared" si="27"/>
         <v>-1</v>
       </c>
       <c r="AA38" s="52">
         <v>36</v>
       </c>
       <c r="AB38" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA38,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC38" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA38,$D:$D,0),2)</f>
-        <v>Galit's Team</v>
+        <f t="shared" si="30"/>
+        <v>Literally Can't Even</v>
       </c>
       <c r="AD38" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA38,$D:$D,0),4)</f>
-        <v>Galit-2018</v>
+        <f t="shared" si="31"/>
+        <v>Caryn-2015</v>
       </c>
       <c r="AE38" s="52">
-        <f>INDEX(S:S,MATCH(AA38,D:D,0))</f>
-        <v>-0.19646761502875809</v>
+        <f t="shared" si="32"/>
+        <v>-0.22721006571792801</v>
       </c>
       <c r="AF38" s="52">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AF$2,2))</f>
-        <v>76.961964427267617</v>
+        <f t="shared" si="29"/>
+        <v>89.306261001156599</v>
       </c>
       <c r="AG38" s="52">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AG$2,2))</f>
-        <v>90.744831926661334</v>
+        <f t="shared" si="29"/>
+        <v>89.530260384729488</v>
       </c>
       <c r="AH38" s="52">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AH$2,2))</f>
-        <v>77.025899335914914</v>
+        <f t="shared" si="29"/>
+        <v>95.208885653999587</v>
       </c>
       <c r="AI38" s="52">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AI$2,2))</f>
-        <v>93.881136550201305</v>
+        <f t="shared" si="29"/>
+        <v>93.431280144257357</v>
       </c>
       <c r="AJ38" s="52">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AJ$2,2))</f>
-        <v>97.162957863596844</v>
+        <f t="shared" si="29"/>
+        <v>95.385376923460825</v>
       </c>
       <c r="AK38" s="52">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AK$2,2))</f>
-        <v>78.328739015014079</v>
+        <f t="shared" si="29"/>
+        <v>88.964689800711895</v>
       </c>
       <c r="AL38" s="52">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AL$2,2))</f>
-        <v>78.315020367634261</v>
+        <f t="shared" si="29"/>
+        <v>93.161471498305232</v>
       </c>
       <c r="AM38" s="52">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AM$2,2))</f>
-        <v>83.135689783957957</v>
+        <f t="shared" si="29"/>
+        <v>81.033692870809659</v>
       </c>
       <c r="AN38" s="52">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AN$2,2))</f>
-        <v>90.425026891449889</v>
+        <f t="shared" si="29"/>
+        <v>78.776325037892661</v>
       </c>
       <c r="AO38" s="52">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AO$2,2))</f>
-        <v>83.966370203788728</v>
+        <f t="shared" si="29"/>
+        <v>72.108011250784259</v>
       </c>
       <c r="AP38" s="52">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AP$2,2))</f>
-        <v>67.78880616063816</v>
+        <f t="shared" si="29"/>
+        <v>60.443296218208744</v>
       </c>
     </row>
     <row r="39" spans="1:55" x14ac:dyDescent="0.25">
@@ -23930,11 +23936,11 @@
         <v>1</v>
       </c>
       <c r="C39" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="D39" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="E39" s="58" t="s">
@@ -23944,7 +23950,7 @@
         <v>27</v>
       </c>
       <c r="G39" s="61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Tony-2017</v>
       </c>
       <c r="H39" s="58">
@@ -23999,7 +24005,7 @@
         <v>5</v>
       </c>
       <c r="X39" s="58" t="str">
-        <f>IF(W39=MAX($W$39:$W$48),-1,IF(W39=1,1,""))</f>
+        <f t="shared" ref="X39:X58" si="33">IF(W39=MAX($W$39:$W$48),-1,IF(W39=1,1,""))</f>
         <v/>
       </c>
       <c r="Y39" s="51">
@@ -24010,64 +24016,64 @@
         <v>37</v>
       </c>
       <c r="AB39" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA39,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC39" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA39,$D:$D,0),2)</f>
-        <v>Literally Can't Even</v>
+        <f t="shared" si="30"/>
+        <v>The Marshawn</v>
       </c>
       <c r="AD39" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA39,$D:$D,0),4)</f>
-        <v>Caryn-2015</v>
+        <f t="shared" si="31"/>
+        <v>MattP-2015</v>
       </c>
       <c r="AE39" s="52">
-        <f>INDEX(S:S,MATCH(AA39,D:D,0))</f>
-        <v>-0.22721006571792801</v>
+        <f t="shared" si="32"/>
+        <v>-0.24530631408354286</v>
       </c>
       <c r="AF39" s="52">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AF$2,2))</f>
-        <v>89.306261001156599</v>
+        <f t="shared" si="29"/>
+        <v>46.352370559099327</v>
       </c>
       <c r="AG39" s="52">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AG$2,2))</f>
-        <v>89.530260384729488</v>
+        <f t="shared" si="29"/>
+        <v>50.794055793501371</v>
       </c>
       <c r="AH39" s="52">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AH$2,2))</f>
-        <v>95.208885653999587</v>
+        <f t="shared" si="29"/>
+        <v>65.486661120805721</v>
       </c>
       <c r="AI39" s="52">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AI$2,2))</f>
-        <v>93.431280144257357</v>
+        <f t="shared" si="29"/>
+        <v>63.11520079399132</v>
       </c>
       <c r="AJ39" s="52">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AJ$2,2))</f>
-        <v>95.385376923460825</v>
+        <f t="shared" si="29"/>
+        <v>70.646725181082644</v>
       </c>
       <c r="AK39" s="52">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AK$2,2))</f>
-        <v>88.964689800711895</v>
+        <f t="shared" si="29"/>
+        <v>65.447746884147435</v>
       </c>
       <c r="AL39" s="52">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AL$2,2))</f>
-        <v>93.161471498305232</v>
+        <f t="shared" si="29"/>
+        <v>75.078917988585602</v>
       </c>
       <c r="AM39" s="52">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AM$2,2))</f>
-        <v>81.033692870809659</v>
+        <f t="shared" si="29"/>
+        <v>69.73170088478949</v>
       </c>
       <c r="AN39" s="52">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AN$2,2))</f>
-        <v>78.776325037892661</v>
+        <f t="shared" si="29"/>
+        <v>65.674892757664097</v>
       </c>
       <c r="AO39" s="52">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AO$2,2))</f>
-        <v>72.108011250784259</v>
+        <f t="shared" si="29"/>
+        <v>61.896987613452595</v>
       </c>
       <c r="AP39" s="52">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AP$2,2))</f>
-        <v>60.443296218208744</v>
+        <f t="shared" si="29"/>
+        <v>69.73495154243858</v>
       </c>
     </row>
     <row r="40" spans="1:55" x14ac:dyDescent="0.25">
@@ -24078,11 +24084,11 @@
         <v>2</v>
       </c>
       <c r="C40" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="D40" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E40" s="58" t="s">
@@ -24092,7 +24098,7 @@
         <v>21</v>
       </c>
       <c r="G40" s="61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Rohit-2017</v>
       </c>
       <c r="H40" s="58">
@@ -24126,18 +24132,18 @@
         <v>92.234025941380892</v>
       </c>
       <c r="R40" s="58">
-        <f t="shared" ref="R40:R48" si="16">Q40</f>
+        <f t="shared" ref="R40:R48" si="34">Q40</f>
         <v>92.234025941380892</v>
       </c>
       <c r="S40" s="60">
-        <f t="shared" ref="S40:S47" si="17">(AVERAGE(H40:R40)-AVERAGE($H$39:$Q$48))/(_xlfn.STDEV.P($H$39:$Q$48)*_xlfn.STDEV.P(H40:R40))+(R40-AVERAGE($R$39:$R$48))/_xlfn.STDEV.P($R$39:$R$48)+(MAX($W$39:$W$48)-W40)/MAX($W$39:$W$48)</f>
+        <f t="shared" ref="S40:S47" si="35">(AVERAGE(H40:R40)-AVERAGE($H$39:$Q$48))/(_xlfn.STDEV.P($H$39:$Q$48)*_xlfn.STDEV.P(H40:R40))+(R40-AVERAGE($R$39:$R$48))/_xlfn.STDEV.P($R$39:$R$48)+(MAX($W$39:$W$48)-W40)/MAX($W$39:$W$48)</f>
         <v>2.3212509543629354</v>
       </c>
       <c r="T40" s="58">
         <v>8.8888888888888893</v>
       </c>
       <c r="U40" s="58">
-        <f t="shared" ref="U40:U48" si="18">T40/12</f>
+        <f t="shared" ref="U40:U48" si="36">T40/12</f>
         <v>0.74074074074074081</v>
       </c>
       <c r="V40" s="58">
@@ -24147,71 +24153,71 @@
         <v>1</v>
       </c>
       <c r="X40" s="58">
-        <f>IF(W40=MAX($W$39:$W$48),-1,IF(W40=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AA40" s="52">
         <v>38</v>
       </c>
       <c r="AB40" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA40,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC40" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA40,$D:$D,0),2)</f>
-        <v>The Marshawn</v>
+        <f t="shared" si="30"/>
+        <v>Rolls Royces</v>
       </c>
       <c r="AD40" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA40,$D:$D,0),4)</f>
-        <v>MattP-2015</v>
+        <f t="shared" si="31"/>
+        <v>Tony-2018</v>
       </c>
       <c r="AE40" s="52">
-        <f>INDEX(S:S,MATCH(AA40,D:D,0))</f>
-        <v>-0.24530631408354286</v>
+        <f t="shared" si="32"/>
+        <v>-0.25196644504741472</v>
       </c>
       <c r="AF40" s="52">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AF$2,2))</f>
-        <v>46.352370559099327</v>
+        <f t="shared" si="29"/>
+        <v>69.525074981237211</v>
       </c>
       <c r="AG40" s="52">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AG$2,2))</f>
-        <v>50.794055793501371</v>
+        <f t="shared" si="29"/>
+        <v>80.880705426349778</v>
       </c>
       <c r="AH40" s="52">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AH$2,2))</f>
-        <v>65.486661120805721</v>
+        <f t="shared" si="29"/>
+        <v>64.623397281629977</v>
       </c>
       <c r="AI40" s="52">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AI$2,2))</f>
-        <v>63.11520079399132</v>
+        <f t="shared" si="29"/>
+        <v>64.629203113696079</v>
       </c>
       <c r="AJ40" s="52">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AJ$2,2))</f>
-        <v>70.646725181082644</v>
+        <f t="shared" si="29"/>
+        <v>60.961699915591232</v>
       </c>
       <c r="AK40" s="52">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AK$2,2))</f>
-        <v>65.447746884147435</v>
+        <f t="shared" si="29"/>
+        <v>62.779920027210252</v>
       </c>
       <c r="AL40" s="52">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AL$2,2))</f>
-        <v>75.078917988585602</v>
+        <f t="shared" si="29"/>
+        <v>73.937858393291648</v>
       </c>
       <c r="AM40" s="52">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AM$2,2))</f>
-        <v>69.73170088478949</v>
+        <f t="shared" si="29"/>
+        <v>80.795703466117232</v>
       </c>
       <c r="AN40" s="52">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AN$2,2))</f>
-        <v>65.674892757664097</v>
+        <f t="shared" si="29"/>
+        <v>88.391675635038311</v>
       </c>
       <c r="AO40" s="52">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AO$2,2))</f>
-        <v>61.896987613452595</v>
+        <f t="shared" si="29"/>
+        <v>86.69153310162153</v>
       </c>
       <c r="AP40" s="52">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AP$2,2))</f>
-        <v>69.73495154243858</v>
+        <f t="shared" si="29"/>
+        <v>72.914717839534347</v>
       </c>
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.25">
@@ -24222,11 +24228,11 @@
         <v>3</v>
       </c>
       <c r="C41" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>35</v>
       </c>
       <c r="D41" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="E41" s="58" t="s">
@@ -24236,7 +24242,7 @@
         <v>37</v>
       </c>
       <c r="G41" s="61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Mili/Vinay-2017</v>
       </c>
       <c r="H41" s="58">
@@ -24270,18 +24276,18 @@
         <v>87.277752303761474</v>
       </c>
       <c r="R41" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>87.277752303761474</v>
       </c>
       <c r="S41" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>1.3003958036854788</v>
       </c>
       <c r="T41" s="58">
         <v>5.3333333333333339</v>
       </c>
       <c r="U41" s="58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="36"/>
         <v>0.44444444444444448</v>
       </c>
       <c r="V41" s="58">
@@ -24291,70 +24297,70 @@
         <v>3</v>
       </c>
       <c r="X41" s="58" t="str">
-        <f>IF(W41=MAX($W$39:$W$48),-1,IF(W41=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA41" s="52">
         <v>39</v>
       </c>
       <c r="AB41" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA41,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC41" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA41,$D:$D,0),2)</f>
+        <f t="shared" si="30"/>
         <v>da muffins</v>
       </c>
       <c r="AD41" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA41,$D:$D,0),4)</f>
+        <f t="shared" si="31"/>
         <v>Joe-2015</v>
       </c>
       <c r="AE41" s="52">
-        <f>INDEX(S:S,MATCH(AA41,D:D,0))</f>
+        <f t="shared" si="32"/>
         <v>-0.29133424751426912</v>
       </c>
       <c r="AF41" s="52">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="29"/>
         <v>99.986104585204629</v>
       </c>
       <c r="AG41" s="52">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="29"/>
         <v>94.342587961518973</v>
       </c>
       <c r="AH41" s="52">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="29"/>
         <v>99.920365920869017</v>
       </c>
       <c r="AI41" s="52">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="29"/>
         <v>107.34716301405658</v>
       </c>
       <c r="AJ41" s="52">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="29"/>
         <v>96.138690477166108</v>
       </c>
       <c r="AK41" s="52">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="29"/>
         <v>93.476366674736781</v>
       </c>
       <c r="AL41" s="52">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="29"/>
         <v>81.179119998890485</v>
       </c>
       <c r="AM41" s="52">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="29"/>
         <v>64.975744933665936</v>
       </c>
       <c r="AN41" s="52">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="29"/>
         <v>55.223007097386684</v>
       </c>
       <c r="AO41" s="52">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="29"/>
         <v>73.001780824743705</v>
       </c>
       <c r="AP41" s="52">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="29"/>
         <v>62.125168358056015</v>
       </c>
     </row>
@@ -24366,11 +24372,11 @@
         <v>4</v>
       </c>
       <c r="C42" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
       <c r="D42" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="E42" s="58" t="s">
@@ -24380,7 +24386,7 @@
         <v>25</v>
       </c>
       <c r="G42" s="61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Caryn-2017</v>
       </c>
       <c r="H42" s="58">
@@ -24414,18 +24420,18 @@
         <v>83.286824713923764</v>
       </c>
       <c r="R42" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>83.286824713923764</v>
       </c>
       <c r="S42" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>1.0219229146962459</v>
       </c>
       <c r="T42" s="58">
         <v>5.8888888888888902</v>
       </c>
       <c r="U42" s="58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="36"/>
         <v>0.49074074074074087</v>
       </c>
       <c r="V42" s="58">
@@ -24435,70 +24441,70 @@
         <v>2</v>
       </c>
       <c r="X42" s="58" t="str">
-        <f>IF(W42=MAX($W$39:$W$48),-1,IF(W42=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA42" s="52">
         <v>40</v>
       </c>
       <c r="AB42" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA42,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC42" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA42,$D:$D,0),2)</f>
+        <f t="shared" si="30"/>
         <v>Akshay's Team</v>
       </c>
       <c r="AD42" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA42,$D:$D,0),4)</f>
+        <f t="shared" si="31"/>
         <v>Akshay-2018</v>
       </c>
       <c r="AE42" s="52">
-        <f>INDEX(S:S,MATCH(AA42,D:D,0))</f>
+        <f t="shared" si="32"/>
         <v>-0.36884278443924062</v>
       </c>
       <c r="AF42" s="52">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="29"/>
         <v>68.435853449654019</v>
       </c>
       <c r="AG42" s="52">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="29"/>
         <v>71.753969222317778</v>
       </c>
       <c r="AH42" s="52">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="29"/>
         <v>80.504394713371184</v>
       </c>
       <c r="AI42" s="52">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="29"/>
         <v>82.711975181564782</v>
       </c>
       <c r="AJ42" s="52">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="29"/>
         <v>70.477302940763522</v>
       </c>
       <c r="AK42" s="52">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="29"/>
         <v>71.262338075977937</v>
       </c>
       <c r="AL42" s="52">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="29"/>
         <v>46.331199825706769</v>
       </c>
       <c r="AM42" s="52">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="29"/>
         <v>55.243029640877253</v>
       </c>
       <c r="AN42" s="52">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="29"/>
         <v>51.179229524964349</v>
       </c>
       <c r="AO42" s="52">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="29"/>
         <v>59.502898225548428</v>
       </c>
       <c r="AP42" s="52">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="29"/>
         <v>68.371397731121618</v>
       </c>
     </row>
@@ -24510,11 +24516,11 @@
         <v>5</v>
       </c>
       <c r="C43" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="D43" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="E43" s="58" t="s">
@@ -24524,7 +24530,7 @@
         <v>63</v>
       </c>
       <c r="G43" s="61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Ross-2017</v>
       </c>
       <c r="H43" s="58">
@@ -24558,18 +24564,18 @@
         <v>82.738647110983152</v>
       </c>
       <c r="R43" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>82.738647110983152</v>
       </c>
       <c r="S43" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>0.43112449246098622</v>
       </c>
       <c r="T43" s="58">
         <v>6.7777777777777777</v>
       </c>
       <c r="U43" s="58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="36"/>
         <v>0.56481481481481477</v>
       </c>
       <c r="V43" s="58">
@@ -24579,71 +24585,71 @@
         <v>8</v>
       </c>
       <c r="X43" s="58" t="str">
-        <f>IF(W43=MAX($W$39:$W$48),-1,IF(W43=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA43" s="52">
         <v>41</v>
       </c>
       <c r="AB43" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA43,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC43" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA43,$D:$D,0),2)</f>
-        <v>ELITE AS TUCK</v>
+        <f t="shared" si="30"/>
+        <v>Curse of the Commish</v>
       </c>
       <c r="AD43" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA43,$D:$D,0),4)</f>
-        <v>Caryn-2014</v>
+        <f t="shared" si="31"/>
+        <v>Rohit-2018</v>
       </c>
       <c r="AE43" s="52">
-        <f>INDEX(S:S,MATCH(AA43,D:D,0))</f>
-        <v>-0.45932736220250275</v>
+        <f t="shared" si="32"/>
+        <v>-0.43601353774224061</v>
       </c>
       <c r="AF43" s="52">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AF$2,2))</f>
-        <v>92.574933889359485</v>
+        <f t="shared" ref="AF43:AP52" si="37">INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AF$2,2))</f>
+        <v>59.808993240381639</v>
       </c>
       <c r="AG43" s="52">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AG$2,2))</f>
-        <v>96.667627208832172</v>
+        <f t="shared" si="37"/>
+        <v>60.756363974885744</v>
       </c>
       <c r="AH43" s="52">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AH$2,2))</f>
-        <v>85.488031710798353</v>
+        <f t="shared" si="37"/>
+        <v>54.720607733268174</v>
       </c>
       <c r="AI43" s="52">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AI$2,2))</f>
-        <v>79.086466230062001</v>
+        <f t="shared" si="37"/>
+        <v>64.796562118111439</v>
       </c>
       <c r="AJ43" s="52">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AJ$2,2))</f>
-        <v>80.221493771524493</v>
+        <f t="shared" si="37"/>
+        <v>74.472765357234394</v>
       </c>
       <c r="AK43" s="52">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AK$2,2))</f>
-        <v>90.205804607603483</v>
+        <f t="shared" si="37"/>
+        <v>75.591840688310882</v>
       </c>
       <c r="AL43" s="52">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AL$2,2))</f>
-        <v>86.0428444592944</v>
+        <f t="shared" si="37"/>
+        <v>66.815357441074397</v>
       </c>
       <c r="AM43" s="52">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AM$2,2))</f>
-        <v>88.133769404205822</v>
+        <f t="shared" si="37"/>
+        <v>69.507614618389823</v>
       </c>
       <c r="AN43" s="52">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AN$2,2))</f>
-        <v>88.458370593981741</v>
+        <f t="shared" si="37"/>
+        <v>71.296110451963301</v>
       </c>
       <c r="AO43" s="52">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AO$2,2))</f>
-        <v>70.892195072592045</v>
+        <f t="shared" si="37"/>
+        <v>68.661267519715167</v>
       </c>
       <c r="AP43" s="52">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AP$2,2))</f>
-        <v>74.056833647840932</v>
+        <f t="shared" si="37"/>
+        <v>70.670492792338507</v>
       </c>
     </row>
     <row r="44" spans="1:55" x14ac:dyDescent="0.25">
@@ -24654,11 +24660,11 @@
         <v>6</v>
       </c>
       <c r="C44" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>35</v>
       </c>
       <c r="D44" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="E44" s="58" t="s">
@@ -24668,7 +24674,7 @@
         <v>31</v>
       </c>
       <c r="G44" s="61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Jeff-2017</v>
       </c>
       <c r="H44" s="58">
@@ -24702,18 +24708,18 @@
         <v>80.667554742777895</v>
       </c>
       <c r="R44" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>80.667554742777895</v>
       </c>
       <c r="S44" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>0.53747973769366109</v>
       </c>
       <c r="T44" s="58">
         <v>5.3333333333333339</v>
       </c>
       <c r="U44" s="58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="36"/>
         <v>0.44444444444444448</v>
       </c>
       <c r="V44" s="58">
@@ -24723,71 +24729,71 @@
         <v>4</v>
       </c>
       <c r="X44" s="58" t="str">
-        <f>IF(W44=MAX($W$39:$W$48),-1,IF(W44=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA44" s="52">
         <v>42</v>
       </c>
       <c r="AB44" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA44,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC44" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA44,$D:$D,0),2)</f>
-        <v>Fortune Favors The Bold</v>
+        <f t="shared" si="30"/>
+        <v>ELITE AS TUCK</v>
       </c>
       <c r="AD44" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA44,$D:$D,0),4)</f>
-        <v>Will-2015</v>
+        <f t="shared" si="31"/>
+        <v>Caryn-2014</v>
       </c>
       <c r="AE44" s="52">
-        <f>INDEX(S:S,MATCH(AA44,D:D,0))</f>
-        <v>-0.49948141450816574</v>
+        <f t="shared" si="32"/>
+        <v>-0.45932736220250275</v>
       </c>
       <c r="AF44" s="52">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AF$2,2))</f>
-        <v>49.145104101095853</v>
+        <f t="shared" si="37"/>
+        <v>92.574933889359485</v>
       </c>
       <c r="AG44" s="52">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AG$2,2))</f>
-        <v>60.537949783379858</v>
+        <f t="shared" si="37"/>
+        <v>96.667627208832172</v>
       </c>
       <c r="AH44" s="52">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AH$2,2))</f>
-        <v>45.468534031230767</v>
+        <f t="shared" si="37"/>
+        <v>85.488031710798353</v>
       </c>
       <c r="AI44" s="52">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AI$2,2))</f>
-        <v>59.78737792320338</v>
+        <f t="shared" si="37"/>
+        <v>79.086466230062001</v>
       </c>
       <c r="AJ44" s="52">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AJ$2,2))</f>
-        <v>63.512300343256477</v>
+        <f t="shared" si="37"/>
+        <v>80.221493771524493</v>
       </c>
       <c r="AK44" s="52">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AK$2,2))</f>
-        <v>70.512627150068852</v>
+        <f t="shared" si="37"/>
+        <v>90.205804607603483</v>
       </c>
       <c r="AL44" s="52">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AL$2,2))</f>
-        <v>77.71926764514744</v>
+        <f t="shared" si="37"/>
+        <v>86.0428444592944</v>
       </c>
       <c r="AM44" s="52">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AM$2,2))</f>
-        <v>76.749262147435019</v>
+        <f t="shared" si="37"/>
+        <v>88.133769404205822</v>
       </c>
       <c r="AN44" s="52">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AN$2,2))</f>
-        <v>51.211771405344052</v>
+        <f t="shared" si="37"/>
+        <v>88.458370593981741</v>
       </c>
       <c r="AO44" s="52">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AO$2,2))</f>
-        <v>55.651412031369659</v>
+        <f t="shared" si="37"/>
+        <v>70.892195072592045</v>
       </c>
       <c r="AP44" s="52">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AP$2,2))</f>
-        <v>62.925551095767531</v>
+        <f t="shared" si="37"/>
+        <v>74.056833647840932</v>
       </c>
       <c r="AR44" s="52" t="s">
         <v>47</v>
@@ -24801,39 +24807,39 @@
         <v>111.43925463433807</v>
       </c>
       <c r="AU44" s="52">
-        <f t="shared" ref="AU44:BC44" si="19">MAX(AH:AH)</f>
+        <f t="shared" ref="AU44:BC44" si="38">MAX(AH:AH)</f>
         <v>109.67798567945444</v>
       </c>
       <c r="AV44" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>107.34716301405658</v>
       </c>
       <c r="AW44" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>114.96906432406287</v>
       </c>
       <c r="AX44" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>114.16677127310599</v>
       </c>
       <c r="AY44" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>113.06326136645643</v>
       </c>
       <c r="AZ44" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>102.80913620846437</v>
       </c>
       <c r="BA44" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>122.61699605725315</v>
       </c>
       <c r="BB44" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>107.3174336526064</v>
       </c>
       <c r="BC44" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>118.31182273824533</v>
       </c>
     </row>
@@ -24845,11 +24851,11 @@
         <v>7</v>
       </c>
       <c r="C45" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>29</v>
       </c>
       <c r="D45" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="E45" s="58" t="s">
@@ -24859,7 +24865,7 @@
         <v>26</v>
       </c>
       <c r="G45" s="61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Akshay-2017</v>
       </c>
       <c r="H45" s="58">
@@ -24893,18 +24899,18 @@
         <v>75.845837810213993</v>
       </c>
       <c r="R45" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>75.845837810213993</v>
       </c>
       <c r="S45" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>-0.13731368236251484</v>
       </c>
       <c r="T45" s="58">
         <v>5.8888888888888893</v>
       </c>
       <c r="U45" s="58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="36"/>
         <v>0.49074074074074076</v>
       </c>
       <c r="V45" s="58">
@@ -24914,117 +24920,117 @@
         <v>6</v>
       </c>
       <c r="X45" s="58" t="str">
-        <f>IF(W45=MAX($W$39:$W$48),-1,IF(W45=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA45" s="52">
         <v>43</v>
       </c>
       <c r="AB45" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA45,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC45" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA45,$D:$D,0),2)</f>
-        <v>Curse of the Commish</v>
+        <f t="shared" si="30"/>
+        <v>Fortune Favors The Bold</v>
       </c>
       <c r="AD45" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA45,$D:$D,0),4)</f>
-        <v>Rohit-2018</v>
+        <f t="shared" si="31"/>
+        <v>Will-2015</v>
       </c>
       <c r="AE45" s="52">
-        <f>INDEX(S:S,MATCH(AA45,D:D,0))</f>
-        <v>-0.53601353774224059</v>
+        <f t="shared" si="32"/>
+        <v>-0.49948141450816574</v>
       </c>
       <c r="AF45" s="52">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AF$2,2))</f>
-        <v>59.808993240381639</v>
+        <f t="shared" si="37"/>
+        <v>49.145104101095853</v>
       </c>
       <c r="AG45" s="52">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AG$2,2))</f>
-        <v>60.756363974885744</v>
+        <f t="shared" si="37"/>
+        <v>60.537949783379858</v>
       </c>
       <c r="AH45" s="52">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AH$2,2))</f>
-        <v>54.720607733268174</v>
+        <f t="shared" si="37"/>
+        <v>45.468534031230767</v>
       </c>
       <c r="AI45" s="52">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AI$2,2))</f>
-        <v>64.796562118111439</v>
+        <f t="shared" si="37"/>
+        <v>59.78737792320338</v>
       </c>
       <c r="AJ45" s="52">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AJ$2,2))</f>
-        <v>74.472765357234394</v>
+        <f t="shared" si="37"/>
+        <v>63.512300343256477</v>
       </c>
       <c r="AK45" s="52">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AK$2,2))</f>
-        <v>75.591840688310882</v>
+        <f t="shared" si="37"/>
+        <v>70.512627150068852</v>
       </c>
       <c r="AL45" s="52">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AL$2,2))</f>
-        <v>66.815357441074397</v>
+        <f t="shared" si="37"/>
+        <v>77.71926764514744</v>
       </c>
       <c r="AM45" s="52">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AM$2,2))</f>
-        <v>69.507614618389823</v>
+        <f t="shared" si="37"/>
+        <v>76.749262147435019</v>
       </c>
       <c r="AN45" s="52">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AN$2,2))</f>
-        <v>71.296110451963301</v>
+        <f t="shared" si="37"/>
+        <v>51.211771405344052</v>
       </c>
       <c r="AO45" s="52">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AO$2,2))</f>
-        <v>68.661267519715167</v>
+        <f t="shared" si="37"/>
+        <v>55.651412031369659</v>
       </c>
       <c r="AP45" s="52">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AP$2,2))</f>
-        <v>70.670492792338507</v>
+        <f t="shared" si="37"/>
+        <v>62.925551095767531</v>
       </c>
       <c r="AR45" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AS45" s="52" t="str">
-        <f t="shared" ref="AS45:BC45" si="20">INDEX($AC:$AC,MATCH(AS44,AF:AF,0))</f>
+        <f t="shared" ref="AS45:BC45" si="39">INDEX($AC:$AC,MATCH(AS44,AF:AF,0))</f>
         <v>Abdullah Matata</v>
       </c>
       <c r="AT45" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="39"/>
         <v>Belee Dat</v>
       </c>
       <c r="AU45" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="39"/>
         <v>Taniquetil Eagles</v>
       </c>
       <c r="AV45" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="39"/>
         <v>da muffins</v>
       </c>
       <c r="AW45" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="39"/>
         <v>Taniquetil Eagles</v>
       </c>
       <c r="AX45" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="39"/>
         <v>The Decepticons</v>
       </c>
       <c r="AY45" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="39"/>
         <v>The Decepticons</v>
       </c>
       <c r="AZ45" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="39"/>
         <v>Avacado Seeds</v>
       </c>
       <c r="BA45" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="39"/>
         <v>The Decepticons</v>
       </c>
       <c r="BB45" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="39"/>
         <v>What Would Gronk Do</v>
       </c>
       <c r="BC45" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="39"/>
         <v>The Decepticons</v>
       </c>
     </row>
@@ -25036,11 +25042,11 @@
         <v>8</v>
       </c>
       <c r="C46" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="D46" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="E46" s="58" t="s">
@@ -25050,7 +25056,7 @@
         <v>32</v>
       </c>
       <c r="G46" s="61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Will-2017</v>
       </c>
       <c r="H46" s="58">
@@ -25084,18 +25090,18 @@
         <v>75.237225289455637</v>
       </c>
       <c r="R46" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>75.237225289455637</v>
       </c>
       <c r="S46" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>-0.61575020202332409</v>
       </c>
       <c r="T46" s="58">
         <v>5.6666666666666661</v>
       </c>
       <c r="U46" s="58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="36"/>
         <v>0.47222222222222215</v>
       </c>
       <c r="V46" s="58">
@@ -25105,70 +25111,70 @@
         <v>10</v>
       </c>
       <c r="X46" s="58">
-        <f>IF(W46=MAX($W$39:$W$48),-1,IF(W46=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v>-1</v>
       </c>
       <c r="AA46" s="52">
         <v>44</v>
       </c>
       <c r="AB46" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA46,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC46" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA46,$D:$D,0),2)</f>
+        <f t="shared" si="30"/>
         <v>Fortune Favors The Bold</v>
       </c>
       <c r="AD46" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA46,$D:$D,0),4)</f>
+        <f t="shared" si="31"/>
         <v>Will-2017</v>
       </c>
       <c r="AE46" s="52">
-        <f>INDEX(S:S,MATCH(AA46,D:D,0))</f>
+        <f t="shared" si="32"/>
         <v>-0.61575020202332409</v>
       </c>
       <c r="AF46" s="52">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="37"/>
         <v>98.29688961992133</v>
       </c>
       <c r="AG46" s="52">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="37"/>
         <v>95.545835821780315</v>
       </c>
       <c r="AH46" s="52">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="37"/>
         <v>93.423875844542437</v>
       </c>
       <c r="AI46" s="52">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="37"/>
         <v>77.702629548358729</v>
       </c>
       <c r="AJ46" s="52">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="37"/>
         <v>74.866235534338728</v>
       </c>
       <c r="AK46" s="52">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="37"/>
         <v>68.518236565983372</v>
       </c>
       <c r="AL46" s="52">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="37"/>
         <v>54.955082022234862</v>
       </c>
       <c r="AM46" s="52">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="37"/>
         <v>56.440759883598247</v>
       </c>
       <c r="AN46" s="52">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="37"/>
         <v>70.678422125512341</v>
       </c>
       <c r="AO46" s="52">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="37"/>
         <v>75.237225289455637</v>
       </c>
       <c r="AP46" s="52">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="37"/>
         <v>75.237225289455637</v>
       </c>
       <c r="AR46" s="52" t="s">
@@ -25179,43 +25185,43 @@
         <v>39.719259479749425</v>
       </c>
       <c r="AT46" s="52">
-        <f t="shared" ref="AT46" si="21">MIN(AG:AG)</f>
+        <f t="shared" ref="AT46" si="40">MIN(AG:AG)</f>
         <v>49.051975747043642</v>
       </c>
       <c r="AU46" s="52">
-        <f t="shared" ref="AU46" si="22">MIN(AH:AH)</f>
+        <f t="shared" ref="AU46" si="41">MIN(AH:AH)</f>
         <v>43.445615124219131</v>
       </c>
       <c r="AV46" s="52">
-        <f t="shared" ref="AV46" si="23">MIN(AI:AI)</f>
+        <f t="shared" ref="AV46" si="42">MIN(AI:AI)</f>
         <v>15.638018053045208</v>
       </c>
       <c r="AW46" s="52">
-        <f t="shared" ref="AW46" si="24">MIN(AJ:AJ)</f>
+        <f t="shared" ref="AW46" si="43">MIN(AJ:AJ)</f>
         <v>19.187667341694535</v>
       </c>
       <c r="AX46" s="52">
-        <f t="shared" ref="AX46" si="25">MIN(AK:AK)</f>
+        <f t="shared" ref="AX46" si="44">MIN(AK:AK)</f>
         <v>33.201626852585477</v>
       </c>
       <c r="AY46" s="52">
-        <f t="shared" ref="AY46" si="26">MIN(AL:AL)</f>
+        <f t="shared" ref="AY46" si="45">MIN(AL:AL)</f>
         <v>39.759667306474782</v>
       </c>
       <c r="AZ46" s="52">
-        <f t="shared" ref="AZ46" si="27">MIN(AM:AM)</f>
+        <f t="shared" ref="AZ46" si="46">MIN(AM:AM)</f>
         <v>47.970950221245729</v>
       </c>
       <c r="BA46" s="52">
-        <f t="shared" ref="BA46" si="28">MIN(AN:AN)</f>
+        <f t="shared" ref="BA46" si="47">MIN(AN:AN)</f>
         <v>45.858101816632988</v>
       </c>
       <c r="BB46" s="52">
-        <f t="shared" ref="BB46" si="29">MIN(AO:AO)</f>
+        <f t="shared" ref="BB46" si="48">MIN(AO:AO)</f>
         <v>48.430272106307008</v>
       </c>
       <c r="BC46" s="52">
-        <f t="shared" ref="BC46" si="30">MIN(AP:AP)</f>
+        <f t="shared" ref="BC46" si="49">MIN(AP:AP)</f>
         <v>45.839290597591798</v>
       </c>
     </row>
@@ -25227,11 +25233,11 @@
         <v>9</v>
       </c>
       <c r="C47" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>34</v>
       </c>
       <c r="D47" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="E47" s="58" t="s">
@@ -25241,7 +25247,7 @@
         <v>28</v>
       </c>
       <c r="G47" s="61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Pranay-2017</v>
       </c>
       <c r="H47" s="58">
@@ -25275,18 +25281,18 @@
         <v>73.750729407070452</v>
       </c>
       <c r="R47" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>73.750729407070452</v>
       </c>
       <c r="S47" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>-0.66346969068531936</v>
       </c>
       <c r="T47" s="58">
         <v>5.4444444444444446</v>
       </c>
       <c r="U47" s="58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="36"/>
         <v>0.45370370370370372</v>
       </c>
       <c r="V47" s="58">
@@ -25296,117 +25302,117 @@
         <v>9</v>
       </c>
       <c r="X47" s="58" t="str">
-        <f>IF(W47=MAX($W$39:$W$48),-1,IF(W47=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA47" s="52">
         <v>45</v>
       </c>
       <c r="AB47" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA47,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC47" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA47,$D:$D,0),2)</f>
+        <f t="shared" si="30"/>
         <v>4th and 20</v>
       </c>
       <c r="AD47" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA47,$D:$D,0),4)</f>
+        <f t="shared" si="31"/>
         <v>Akshay-2014</v>
       </c>
       <c r="AE47" s="52">
-        <f>INDEX(S:S,MATCH(AA47,D:D,0))</f>
+        <f t="shared" si="32"/>
         <v>-0.65088288701210339</v>
       </c>
       <c r="AF47" s="52">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="37"/>
         <v>65.548101273502738</v>
       </c>
       <c r="AG47" s="52">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="37"/>
         <v>68.280180521531975</v>
       </c>
       <c r="AH47" s="52">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="37"/>
         <v>77.003651586639805</v>
       </c>
       <c r="AI47" s="52">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="37"/>
         <v>78.985013118619449</v>
       </c>
       <c r="AJ47" s="52">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="37"/>
         <v>66.502173925959937</v>
       </c>
       <c r="AK47" s="52">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="37"/>
         <v>63.1186501712385</v>
       </c>
       <c r="AL47" s="52">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="37"/>
         <v>56.302128373897872</v>
       </c>
       <c r="AM47" s="52">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="37"/>
         <v>69.76553332673501</v>
       </c>
       <c r="AN47" s="52">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="37"/>
         <v>68.042216404184188</v>
       </c>
       <c r="AO47" s="52">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="37"/>
         <v>73.958407313090419</v>
       </c>
       <c r="AP47" s="52">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="37"/>
         <v>70.496301723984828</v>
       </c>
       <c r="AR47" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AS47" s="52" t="str">
-        <f t="shared" ref="AS47:BC47" si="31">INDEX($AC:$AC,MATCH(AS46,AF:AF,0))</f>
+        <f t="shared" ref="AS47:BC47" si="50">INDEX($AC:$AC,MATCH(AS46,AF:AF,0))</f>
         <v>I'm About To Go H.A.M</v>
       </c>
       <c r="AT47" s="52" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>Fortune Favors The Bold</v>
       </c>
       <c r="AU47" s="52" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>Team Moyer</v>
       </c>
       <c r="AV47" s="52" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>Team Moyer</v>
       </c>
       <c r="AW47" s="52" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>Do You Even Lift?</v>
       </c>
       <c r="AX47" s="52" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>Team Moyer</v>
       </c>
       <c r="AY47" s="52" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>Do You Even Lift?</v>
       </c>
       <c r="AZ47" s="52" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>Team Moyer</v>
       </c>
       <c r="BA47" s="52" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>Team Moyer</v>
       </c>
       <c r="BB47" s="52" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>Fortune Favors The Bold</v>
       </c>
       <c r="BC47" s="52" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="50"/>
         <v>FETTY WATT</v>
       </c>
     </row>
@@ -25418,11 +25424,11 @@
         <v>10</v>
       </c>
       <c r="C48" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="D48" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="E48" s="58" t="s">
@@ -25432,7 +25438,7 @@
         <v>22</v>
       </c>
       <c r="G48" s="61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Galit-2017</v>
       </c>
       <c r="H48" s="58">
@@ -25466,7 +25472,7 @@
         <v>61.439737374658449</v>
       </c>
       <c r="R48" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>61.439737374658449</v>
       </c>
       <c r="S48" s="60">
@@ -25477,7 +25483,7 @@
         <v>4.0000000000000009</v>
       </c>
       <c r="U48" s="58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="36"/>
         <v>0.33333333333333343</v>
       </c>
       <c r="V48" s="58">
@@ -25487,70 +25493,70 @@
         <v>7</v>
       </c>
       <c r="X48" s="58" t="str">
-        <f>IF(W48=MAX($W$39:$W$48),-1,IF(W48=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA48" s="52">
         <v>46</v>
       </c>
       <c r="AB48" s="53" t="str">
-        <f>IF(INDEX($W:$W,MATCH($AA48,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC48" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA48,$D:$D,0),2)</f>
+        <f t="shared" si="30"/>
         <v>All I Do is Winston</v>
       </c>
       <c r="AD48" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA48,$D:$D,0),4)</f>
+        <f t="shared" si="31"/>
         <v>Pranay-2017</v>
       </c>
       <c r="AE48" s="52">
-        <f>INDEX(S:S,MATCH(AA48,D:D,0))</f>
+        <f t="shared" si="32"/>
         <v>-0.66346969068531936</v>
       </c>
       <c r="AF48" s="52">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="37"/>
         <v>96.786258642855643</v>
       </c>
       <c r="AG48" s="52">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="37"/>
         <v>99.066843185260311</v>
       </c>
       <c r="AH48" s="52">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="37"/>
         <v>85.189861194465777</v>
       </c>
       <c r="AI48" s="52">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="37"/>
         <v>82.344432296699821</v>
       </c>
       <c r="AJ48" s="52">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="37"/>
         <v>90.776234694752887</v>
       </c>
       <c r="AK48" s="52">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="37"/>
         <v>76.86824882668698</v>
       </c>
       <c r="AL48" s="52">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="37"/>
         <v>54.342159878294048</v>
       </c>
       <c r="AM48" s="52">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="37"/>
         <v>64.068345387725117</v>
       </c>
       <c r="AN48" s="52">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="37"/>
         <v>58.611533128102153</v>
       </c>
       <c r="AO48" s="52">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="37"/>
         <v>73.750729407070452</v>
       </c>
       <c r="AP48" s="52">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="37"/>
         <v>73.750729407070452</v>
       </c>
       <c r="AR48" s="52" t="s">
@@ -25561,43 +25567,43 @@
         <v>83.850791404756421</v>
       </c>
       <c r="AT48" s="52">
-        <f t="shared" ref="AT48:BC48" si="32">MEDIAN(AG:AG)</f>
+        <f t="shared" ref="AT48:BC48" si="51">MEDIAN(AG:AG)</f>
         <v>81.211924448423318</v>
       </c>
       <c r="AU48" s="52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>82.293216825696149</v>
       </c>
       <c r="AV48" s="52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>79.792669870829187</v>
       </c>
       <c r="AW48" s="52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>77.597308455719286</v>
       </c>
       <c r="AX48" s="52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>79.352126626771962</v>
       </c>
       <c r="AY48" s="52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>79.59426403574858</v>
       </c>
       <c r="AZ48" s="52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>78.476638337070426</v>
       </c>
       <c r="BA48" s="52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>78.537030421028788</v>
       </c>
       <c r="BB48" s="52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>80.977811604244124</v>
       </c>
       <c r="BC48" s="52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="51"/>
         <v>81.682583619772458</v>
       </c>
     </row>
@@ -25613,7 +25619,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="E49" s="60" t="s">
@@ -25623,7 +25629,7 @@
         <v>37</v>
       </c>
       <c r="G49" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Mili/Vinay-2018</v>
       </c>
       <c r="H49" s="50">
@@ -25677,7 +25683,7 @@
         <v>5</v>
       </c>
       <c r="X49" s="60" t="str">
-        <f>IF(W49=MAX($W$39:$W$48),-1,IF(W49=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Y49" s="51">
@@ -25688,59 +25694,59 @@
         <v>47</v>
       </c>
       <c r="AC49" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA49,$D:$D,0),2)</f>
+        <f t="shared" si="30"/>
         <v>WINTER IS NEVER COMING</v>
       </c>
       <c r="AD49" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA49,$D:$D,0),4)</f>
+        <f t="shared" si="31"/>
         <v>Jeff-2014</v>
       </c>
       <c r="AE49" s="52">
-        <f>INDEX(S:S,MATCH(AA49,D:D,0))</f>
+        <f t="shared" si="32"/>
         <v>-0.73414845471252133</v>
       </c>
       <c r="AF49" s="52">
-        <f>INDEX($F:$R,MATCH($AA49,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="37"/>
         <v>76.324030028614203</v>
       </c>
       <c r="AG49" s="52">
-        <f>INDEX($F:$R,MATCH($AA49,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="37"/>
         <v>57.222298464980568</v>
       </c>
       <c r="AH49" s="52">
-        <f>INDEX($F:$R,MATCH($AA49,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="37"/>
         <v>74.464779341596994</v>
       </c>
       <c r="AI49" s="52">
-        <f>INDEX($F:$R,MATCH($AA49,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="37"/>
         <v>78.968557742426825</v>
       </c>
       <c r="AJ49" s="52">
-        <f>INDEX($F:$R,MATCH($AA49,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="37"/>
         <v>64.525063406108657</v>
       </c>
       <c r="AK49" s="52">
-        <f>INDEX($F:$R,MATCH($AA49,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="37"/>
         <v>70.349933677286614</v>
       </c>
       <c r="AL49" s="52">
-        <f>INDEX($F:$R,MATCH($AA49,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="37"/>
         <v>55.811728308515043</v>
       </c>
       <c r="AM49" s="52">
-        <f>INDEX($F:$R,MATCH($AA49,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="37"/>
         <v>70.471156989015611</v>
       </c>
       <c r="AN49" s="52">
-        <f>INDEX($F:$R,MATCH($AA49,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="37"/>
         <v>58.301939166345988</v>
       </c>
       <c r="AO49" s="52">
-        <f>INDEX($F:$R,MATCH($AA49,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="37"/>
         <v>72.549301087336673</v>
       </c>
       <c r="AP49" s="52">
-        <f>INDEX($F:$R,MATCH($AA49,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="37"/>
         <v>73.60122143113324</v>
       </c>
     </row>
@@ -25752,11 +25758,11 @@
         <v>2</v>
       </c>
       <c r="C50" s="61">
-        <f t="shared" ref="C50:C58" si="33">RANK(U50,$U$3:$U$58)</f>
+        <f t="shared" ref="C50:C58" si="52">RANK(U50,$U$3:$U$58)</f>
         <v>7</v>
       </c>
       <c r="D50" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="E50" s="60" t="s">
@@ -25766,7 +25772,7 @@
         <v>74</v>
       </c>
       <c r="G50" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>MattK-2018</v>
       </c>
       <c r="H50" s="50">
@@ -25803,14 +25809,14 @@
         <v>86.072870679265023</v>
       </c>
       <c r="S50" s="60">
-        <f t="shared" ref="S50:S58" si="34">(AVERAGE(H50:R50)-AVERAGE($H$49:$Q$58))/(_xlfn.STDEV.P($H$49:$Q$58)*_xlfn.STDEV.P(H50:R50))+(R50-AVERAGE($R$49:$R$58))/_xlfn.STDEV.P($R$49:$R$58)+(MAX($W$49:$W$58)-W50)/MAX($W$49:$W$58)</f>
+        <f t="shared" ref="S50:S58" si="53">(AVERAGE(H50:R50)-AVERAGE($H$49:$Q$58))/(_xlfn.STDEV.P($H$49:$Q$58)*_xlfn.STDEV.P(H50:R50))+(R50-AVERAGE($R$49:$R$58))/_xlfn.STDEV.P($R$49:$R$58)+(MAX($W$49:$W$58)-W50)/MAX($W$49:$W$58)</f>
         <v>1.6401346176621958</v>
       </c>
       <c r="T50" s="60">
         <v>8.8888888888888911</v>
       </c>
       <c r="U50" s="60">
-        <f t="shared" ref="U50:U58" si="35">T50/13</f>
+        <f t="shared" ref="U50:U58" si="54">T50/13</f>
         <v>0.68376068376068388</v>
       </c>
       <c r="V50" s="60">
@@ -25820,66 +25826,66 @@
         <v>4</v>
       </c>
       <c r="X50" s="60" t="str">
-        <f>IF(W50=MAX($W$39:$W$48),-1,IF(W50=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA50" s="52">
         <v>48</v>
       </c>
       <c r="AC50" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA50,$D:$D,0),2)</f>
+        <f t="shared" si="30"/>
         <v>G - Lit</v>
       </c>
       <c r="AD50" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA50,$D:$D,0),4)</f>
+        <f t="shared" si="31"/>
         <v>Galit-2016</v>
       </c>
       <c r="AE50" s="52">
-        <f>INDEX(S:S,MATCH(AA50,D:D,0))</f>
+        <f t="shared" si="32"/>
         <v>-0.75525672788096299</v>
       </c>
       <c r="AF50" s="52">
-        <f>INDEX($F:$R,MATCH($AA50,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="37"/>
         <v>74.615713418658714</v>
       </c>
       <c r="AG50" s="52">
-        <f>INDEX($F:$R,MATCH($AA50,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="37"/>
         <v>81.105985595679527</v>
       </c>
       <c r="AH50" s="52">
-        <f>INDEX($F:$R,MATCH($AA50,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="37"/>
         <v>70.607930111990541</v>
       </c>
       <c r="AI50" s="52">
-        <f>INDEX($F:$R,MATCH($AA50,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="37"/>
         <v>77.45794942715608</v>
       </c>
       <c r="AJ50" s="52">
-        <f>INDEX($F:$R,MATCH($AA50,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="37"/>
         <v>57.539752947091941</v>
       </c>
       <c r="AK50" s="52">
-        <f>INDEX($F:$R,MATCH($AA50,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="37"/>
         <v>70.565388933096258</v>
       </c>
       <c r="AL50" s="52">
-        <f>INDEX($F:$R,MATCH($AA50,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="37"/>
         <v>75.405828166740093</v>
       </c>
       <c r="AM50" s="52">
-        <f>INDEX($F:$R,MATCH($AA50,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="37"/>
         <v>78.490042365835819</v>
       </c>
       <c r="AN50" s="52">
-        <f>INDEX($F:$R,MATCH($AA50,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="37"/>
         <v>67.046950278833094</v>
       </c>
       <c r="AO50" s="52">
-        <f>INDEX($F:$R,MATCH($AA50,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="37"/>
         <v>68.461125151281209</v>
       </c>
       <c r="AP50" s="52">
-        <f>INDEX($F:$R,MATCH($AA50,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="37"/>
         <v>66.530454147995641</v>
       </c>
     </row>
@@ -25891,11 +25897,11 @@
         <v>3</v>
       </c>
       <c r="C51" s="61">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>11</v>
       </c>
       <c r="D51" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="E51" s="60" t="s">
@@ -25905,7 +25911,7 @@
         <v>25</v>
       </c>
       <c r="G51" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Caryn-2018</v>
       </c>
       <c r="H51" s="50">
@@ -25942,14 +25948,14 @@
         <v>85.719500312519187</v>
       </c>
       <c r="S51" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="53"/>
         <v>1.6420472633955201</v>
       </c>
       <c r="T51" s="60">
         <v>8.1111111111111125</v>
       </c>
       <c r="U51" s="60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="54"/>
         <v>0.62393162393162405</v>
       </c>
       <c r="V51" s="60">
@@ -25959,66 +25965,66 @@
         <v>3</v>
       </c>
       <c r="X51" s="60" t="str">
-        <f>IF(W51=MAX($W$39:$W$48),-1,IF(W51=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA51" s="52">
         <v>49</v>
       </c>
       <c r="AC51" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA51,$D:$D,0),2)</f>
+        <f t="shared" si="30"/>
         <v>WINTER IS NEVER COMING</v>
       </c>
       <c r="AD51" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA51,$D:$D,0),4)</f>
+        <f t="shared" si="31"/>
         <v>Jeff-2016</v>
       </c>
       <c r="AE51" s="52">
-        <f>INDEX(S:S,MATCH(AA51,D:D,0))</f>
+        <f t="shared" si="32"/>
         <v>-1.1502039822164289</v>
       </c>
       <c r="AF51" s="52">
-        <f>INDEX($F:$R,MATCH($AA51,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="37"/>
         <v>83.450131364057199</v>
       </c>
       <c r="AG51" s="52">
-        <f>INDEX($F:$R,MATCH($AA51,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="37"/>
         <v>67.826088058097596</v>
       </c>
       <c r="AH51" s="52">
-        <f>INDEX($F:$R,MATCH($AA51,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="37"/>
         <v>74.533107036134638</v>
       </c>
       <c r="AI51" s="52">
-        <f>INDEX($F:$R,MATCH($AA51,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="37"/>
         <v>78.275910902852971</v>
       </c>
       <c r="AJ51" s="52">
-        <f>INDEX($F:$R,MATCH($AA51,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="37"/>
         <v>66.802882891024524</v>
       </c>
       <c r="AK51" s="52">
-        <f>INDEX($F:$R,MATCH($AA51,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="37"/>
         <v>56.350166655026626</v>
       </c>
       <c r="AL51" s="52">
-        <f>INDEX($F:$R,MATCH($AA51,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="37"/>
         <v>73.488252152506561</v>
       </c>
       <c r="AM51" s="52">
-        <f>INDEX($F:$R,MATCH($AA51,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="37"/>
         <v>65.722829041265641</v>
       </c>
       <c r="AN51" s="52">
-        <f>INDEX($F:$R,MATCH($AA51,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="37"/>
         <v>60.471468238225533</v>
       </c>
       <c r="AO51" s="52">
-        <f>INDEX($F:$R,MATCH($AA51,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="37"/>
         <v>64.506990769740014</v>
       </c>
       <c r="AP51" s="52">
-        <f>INDEX($F:$R,MATCH($AA51,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="37"/>
         <v>65.909173086044291</v>
       </c>
     </row>
@@ -26030,11 +26036,11 @@
         <v>4</v>
       </c>
       <c r="C52" s="61">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>42</v>
       </c>
       <c r="D52" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="E52" s="60" t="s">
@@ -26044,7 +26050,7 @@
         <v>31</v>
       </c>
       <c r="G52" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Jeff-2018</v>
       </c>
       <c r="H52" s="50">
@@ -26081,14 +26087,14 @@
         <v>83.81594911384687</v>
       </c>
       <c r="S52" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="53"/>
         <v>1.5545756129789159</v>
       </c>
       <c r="T52" s="60">
         <v>5.4444444444444446</v>
       </c>
       <c r="U52" s="60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="54"/>
         <v>0.41880341880341881</v>
       </c>
       <c r="V52" s="60">
@@ -26098,66 +26104,66 @@
         <v>1</v>
       </c>
       <c r="X52" s="60">
-        <f>IF(W52=MAX($W$39:$W$48),-1,IF(W52=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AA52" s="52">
         <v>50</v>
       </c>
       <c r="AC52" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA52,$D:$D,0),2)</f>
+        <f t="shared" si="30"/>
         <v>Do You Even Lift?</v>
       </c>
       <c r="AD52" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA52,$D:$D,0),4)</f>
+        <f t="shared" si="31"/>
         <v>Charles-2016</v>
       </c>
       <c r="AE52" s="52">
-        <f>INDEX(S:S,MATCH(AA52,D:D,0))</f>
+        <f t="shared" si="32"/>
         <v>-1.2057093814899333</v>
       </c>
       <c r="AF52" s="52">
-        <f>INDEX($F:$R,MATCH($AA52,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="37"/>
         <v>63.462612402968347</v>
       </c>
       <c r="AG52" s="52">
-        <f>INDEX($F:$R,MATCH($AA52,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="37"/>
         <v>70.420721573864967</v>
       </c>
       <c r="AH52" s="52">
-        <f>INDEX($F:$R,MATCH($AA52,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="37"/>
         <v>62.462647930441875</v>
       </c>
       <c r="AI52" s="52">
-        <f>INDEX($F:$R,MATCH($AA52,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="37"/>
         <v>62.380685126993157</v>
       </c>
       <c r="AJ52" s="52">
-        <f>INDEX($F:$R,MATCH($AA52,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="37"/>
         <v>19.187667341694535</v>
       </c>
       <c r="AK52" s="52">
-        <f>INDEX($F:$R,MATCH($AA52,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="37"/>
         <v>40.594590426217657</v>
       </c>
       <c r="AL52" s="52">
-        <f>INDEX($F:$R,MATCH($AA52,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="37"/>
         <v>39.759667306474782</v>
       </c>
       <c r="AM52" s="52">
-        <f>INDEX($F:$R,MATCH($AA52,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="37"/>
         <v>54.759424440483222</v>
       </c>
       <c r="AN52" s="52">
-        <f>INDEX($F:$R,MATCH($AA52,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="37"/>
         <v>55.500621296222143</v>
       </c>
       <c r="AO52" s="52">
-        <f>INDEX($F:$R,MATCH($AA52,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="37"/>
         <v>64.46780743953714</v>
       </c>
       <c r="AP52" s="52">
-        <f>INDEX($F:$R,MATCH($AA52,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="37"/>
         <v>63.43127649513491</v>
       </c>
     </row>
@@ -26169,11 +26175,11 @@
         <v>5</v>
       </c>
       <c r="C53" s="61">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>27</v>
       </c>
       <c r="D53" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="E53" s="60" t="s">
@@ -26183,7 +26189,7 @@
         <v>28</v>
       </c>
       <c r="G53" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Pranay-2018</v>
       </c>
       <c r="H53" s="50">
@@ -26220,14 +26226,14 @@
         <v>80.995955747395527</v>
       </c>
       <c r="S53" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="53"/>
         <v>1.3626799647257486</v>
       </c>
       <c r="T53" s="60">
         <v>6.4444444444444438</v>
       </c>
       <c r="U53" s="60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="54"/>
         <v>0.49572649572649569</v>
       </c>
       <c r="V53" s="60">
@@ -26237,66 +26243,66 @@
         <v>2</v>
       </c>
       <c r="X53" s="60" t="str">
-        <f>IF(W53=MAX($W$39:$W$48),-1,IF(W53=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA53" s="52">
         <v>51</v>
       </c>
       <c r="AC53" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA53,$D:$D,0),2)</f>
+        <f t="shared" si="30"/>
         <v>Team Moyer</v>
       </c>
       <c r="AD53" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA53,$D:$D,0),4)</f>
+        <f t="shared" si="31"/>
         <v>Ally-2015</v>
       </c>
       <c r="AE53" s="52">
-        <f>INDEX(S:S,MATCH(AA53,D:D,0))</f>
+        <f t="shared" si="32"/>
         <v>-1.4631107743485396</v>
       </c>
       <c r="AF53" s="52">
-        <f>INDEX($F:$R,MATCH($AA53,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" ref="AF53:AP58" si="55">INDEX($F:$R,MATCH($AA53,$D:$D,0),RIGHT(AF$2,2))</f>
         <v>61.252427738453292</v>
       </c>
       <c r="AG53" s="52">
-        <f>INDEX($F:$R,MATCH($AA53,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="55"/>
         <v>54.09337657105025</v>
       </c>
       <c r="AH53" s="52">
-        <f>INDEX($F:$R,MATCH($AA53,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="55"/>
         <v>43.445615124219131</v>
       </c>
       <c r="AI53" s="52">
-        <f>INDEX($F:$R,MATCH($AA53,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="55"/>
         <v>15.638018053045208</v>
       </c>
       <c r="AJ53" s="52">
-        <f>INDEX($F:$R,MATCH($AA53,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="55"/>
         <v>27.535438840324325</v>
       </c>
       <c r="AK53" s="52">
-        <f>INDEX($F:$R,MATCH($AA53,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="55"/>
         <v>33.201626852585477</v>
       </c>
       <c r="AL53" s="52">
-        <f>INDEX($F:$R,MATCH($AA53,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="55"/>
         <v>47.328136691133828</v>
       </c>
       <c r="AM53" s="52">
-        <f>INDEX($F:$R,MATCH($AA53,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="55"/>
         <v>47.970950221245729</v>
       </c>
       <c r="AN53" s="52">
-        <f>INDEX($F:$R,MATCH($AA53,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="55"/>
         <v>45.858101816632988</v>
       </c>
       <c r="AO53" s="52">
-        <f>INDEX($F:$R,MATCH($AA53,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="55"/>
         <v>49.531126111864111</v>
       </c>
       <c r="AP53" s="52">
-        <f>INDEX($F:$R,MATCH($AA53,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="55"/>
         <v>52.449589511739283</v>
       </c>
     </row>
@@ -26308,12 +26314,12 @@
         <v>6</v>
       </c>
       <c r="C54" s="61">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>22</v>
       </c>
       <c r="D54" s="61">
-        <f t="shared" si="3"/>
-        <v>34</v>
+        <f t="shared" si="5"/>
+        <v>38</v>
       </c>
       <c r="E54" s="60" t="s">
         <v>73</v>
@@ -26322,7 +26328,7 @@
         <v>27</v>
       </c>
       <c r="G54" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Tony-2018</v>
       </c>
       <c r="H54" s="50">
@@ -26359,83 +26365,83 @@
         <v>72.914717839534347</v>
       </c>
       <c r="S54" s="60">
-        <f t="shared" si="34"/>
-        <v>-0.15196644504741472</v>
+        <f t="shared" si="53"/>
+        <v>-0.25196644504741472</v>
       </c>
       <c r="T54" s="60">
         <v>7</v>
       </c>
       <c r="U54" s="60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="54"/>
         <v>0.53846153846153844</v>
       </c>
       <c r="V54" s="60">
         <v>6</v>
       </c>
       <c r="W54" s="60">
-        <v>9</v>
-      </c>
-      <c r="X54" s="60" t="str">
-        <f>IF(W54=MAX($W$39:$W$48),-1,IF(W54=1,1,""))</f>
-        <v/>
+        <v>10</v>
+      </c>
+      <c r="X54" s="60">
+        <f t="shared" si="33"/>
+        <v>-1</v>
       </c>
       <c r="AA54" s="52">
         <v>52</v>
       </c>
       <c r="AC54" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA54,$D:$D,0),2)</f>
+        <f t="shared" si="30"/>
         <v>FETTY WATT</v>
       </c>
       <c r="AD54" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA54,$D:$D,0),4)</f>
+        <f t="shared" si="31"/>
         <v>Tony-2015</v>
       </c>
       <c r="AE54" s="52">
-        <f>INDEX(S:S,MATCH(AA54,D:D,0))</f>
+        <f t="shared" si="32"/>
         <v>-1.6813045998357476</v>
       </c>
       <c r="AF54" s="52">
-        <f>INDEX($F:$R,MATCH($AA54,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="55"/>
         <v>56.352983930484811</v>
       </c>
       <c r="AG54" s="52">
-        <f>INDEX($F:$R,MATCH($AA54,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="55"/>
         <v>64.065928315992608</v>
       </c>
       <c r="AH54" s="52">
-        <f>INDEX($F:$R,MATCH($AA54,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="55"/>
         <v>72.067140994744591</v>
       </c>
       <c r="AI54" s="52">
-        <f>INDEX($F:$R,MATCH($AA54,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="55"/>
         <v>69.861661291205365</v>
       </c>
       <c r="AJ54" s="52">
-        <f>INDEX($F:$R,MATCH($AA54,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="55"/>
         <v>72.826802813735767</v>
       </c>
       <c r="AK54" s="52">
-        <f>INDEX($F:$R,MATCH($AA54,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="55"/>
         <v>79.951180823966283</v>
       </c>
       <c r="AL54" s="52">
-        <f>INDEX($F:$R,MATCH($AA54,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="55"/>
         <v>75.534526952691081</v>
       </c>
       <c r="AM54" s="52">
-        <f>INDEX($F:$R,MATCH($AA54,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="55"/>
         <v>76.984350599036659</v>
       </c>
       <c r="AN54" s="52">
-        <f>INDEX($F:$R,MATCH($AA54,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="55"/>
         <v>62.010647323667591</v>
       </c>
       <c r="AO54" s="52">
-        <f>INDEX($F:$R,MATCH($AA54,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="55"/>
         <v>70.962179589999934</v>
       </c>
       <c r="AP54" s="52">
-        <f>INDEX($F:$R,MATCH($AA54,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="55"/>
         <v>45.839290597591798</v>
       </c>
     </row>
@@ -26447,12 +26453,12 @@
         <v>7</v>
       </c>
       <c r="C55" s="61">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>45</v>
       </c>
       <c r="D55" s="61">
-        <f t="shared" si="3"/>
-        <v>43</v>
+        <f t="shared" si="5"/>
+        <v>41</v>
       </c>
       <c r="E55" s="60" t="s">
         <v>70</v>
@@ -26461,7 +26467,7 @@
         <v>21</v>
       </c>
       <c r="G55" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Rohit-2018</v>
       </c>
       <c r="H55" s="50">
@@ -26498,83 +26504,83 @@
         <v>70.670492792338507</v>
       </c>
       <c r="S55" s="60">
-        <f t="shared" si="34"/>
-        <v>-0.53601353774224059</v>
+        <f t="shared" si="53"/>
+        <v>-0.43601353774224061</v>
       </c>
       <c r="T55" s="60">
         <v>4.7777777777777777</v>
       </c>
       <c r="U55" s="60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="54"/>
         <v>0.36752136752136749</v>
       </c>
       <c r="V55" s="60">
         <v>3</v>
       </c>
       <c r="W55" s="60">
-        <v>10</v>
-      </c>
-      <c r="X55" s="60">
-        <f>IF(W55=MAX($W$39:$W$48),-1,IF(W55=1,1,""))</f>
-        <v>-1</v>
+        <v>9</v>
+      </c>
+      <c r="X55" s="60" t="str">
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="AA55" s="52">
         <v>53</v>
       </c>
       <c r="AC55" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA55,$D:$D,0),2)</f>
+        <f t="shared" si="30"/>
         <v>Team Wagers</v>
       </c>
       <c r="AD55" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA55,$D:$D,0),4)</f>
+        <f t="shared" si="31"/>
         <v>Will-2014</v>
       </c>
       <c r="AE55" s="52">
-        <f>INDEX(S:S,MATCH(AA55,D:D,0))</f>
+        <f t="shared" si="32"/>
         <v>-1.6916173967696553</v>
       </c>
       <c r="AF55" s="52">
-        <f>INDEX($F:$R,MATCH($AA55,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="55"/>
         <v>67.936528273374236</v>
       </c>
       <c r="AG55" s="52">
-        <f>INDEX($F:$R,MATCH($AA55,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="55"/>
         <v>79.767252679339464</v>
       </c>
       <c r="AH55" s="52">
-        <f>INDEX($F:$R,MATCH($AA55,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="55"/>
         <v>84.091999142638358</v>
       </c>
       <c r="AI55" s="52">
-        <f>INDEX($F:$R,MATCH($AA55,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="55"/>
         <v>75.063555663255869</v>
       </c>
       <c r="AJ55" s="52">
-        <f>INDEX($F:$R,MATCH($AA55,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="55"/>
         <v>77.288670868565688</v>
       </c>
       <c r="AK55" s="52">
-        <f>INDEX($F:$R,MATCH($AA55,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="55"/>
         <v>42.322639344810867</v>
       </c>
       <c r="AL55" s="52">
-        <f>INDEX($F:$R,MATCH($AA55,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="55"/>
         <v>54.057014927774553</v>
       </c>
       <c r="AM55" s="52">
-        <f>INDEX($F:$R,MATCH($AA55,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="55"/>
         <v>56.811240471678275</v>
       </c>
       <c r="AN55" s="52">
-        <f>INDEX($F:$R,MATCH($AA55,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="55"/>
         <v>61.525768380103479</v>
       </c>
       <c r="AO55" s="52">
-        <f>INDEX($F:$R,MATCH($AA55,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="55"/>
         <v>62.618696822980752</v>
       </c>
       <c r="AP55" s="52">
-        <f>INDEX($F:$R,MATCH($AA55,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="55"/>
         <v>59.329142441202279</v>
       </c>
     </row>
@@ -26586,11 +26592,11 @@
         <v>8</v>
       </c>
       <c r="C56" s="61">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>47</v>
       </c>
       <c r="D56" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="E56" s="60" t="s">
@@ -26600,7 +26606,7 @@
         <v>26</v>
       </c>
       <c r="G56" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Akshay-2018</v>
       </c>
       <c r="H56" s="50">
@@ -26637,14 +26643,14 @@
         <v>68.371397731121618</v>
       </c>
       <c r="S56" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="53"/>
         <v>-0.36884278443924062</v>
       </c>
       <c r="T56" s="60">
         <v>4.666666666666667</v>
       </c>
       <c r="U56" s="60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="54"/>
         <v>0.35897435897435898</v>
       </c>
       <c r="V56" s="60">
@@ -26654,66 +26660,66 @@
         <v>7</v>
       </c>
       <c r="X56" s="60" t="str">
-        <f>IF(W56=MAX($W$39:$W$48),-1,IF(W56=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA56" s="52">
         <v>54</v>
       </c>
       <c r="AC56" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA56,$D:$D,0),2)</f>
+        <f t="shared" si="30"/>
         <v>G - Lit</v>
       </c>
       <c r="AD56" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA56,$D:$D,0),4)</f>
+        <f t="shared" si="31"/>
         <v>Galit-2017</v>
       </c>
       <c r="AE56" s="52">
-        <f>INDEX(S:S,MATCH(AA56,D:D,0))</f>
+        <f t="shared" si="32"/>
         <v>-1.7969199561255851</v>
       </c>
       <c r="AF56" s="52">
-        <f>INDEX($F:$R,MATCH($AA56,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="55"/>
         <v>85.747471322292867</v>
       </c>
       <c r="AG56" s="52">
-        <f>INDEX($F:$R,MATCH($AA56,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="55"/>
         <v>81.317863301167108</v>
       </c>
       <c r="AH56" s="52">
-        <f>INDEX($F:$R,MATCH($AA56,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="55"/>
         <v>87.860208432586091</v>
       </c>
       <c r="AI56" s="52">
-        <f>INDEX($F:$R,MATCH($AA56,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="55"/>
         <v>59.099808866595851</v>
       </c>
       <c r="AJ56" s="52">
-        <f>INDEX($F:$R,MATCH($AA56,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="55"/>
         <v>73.961351076001307</v>
       </c>
       <c r="AK56" s="52">
-        <f>INDEX($F:$R,MATCH($AA56,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="55"/>
         <v>74.201290888806369</v>
       </c>
       <c r="AL56" s="52">
-        <f>INDEX($F:$R,MATCH($AA56,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="55"/>
         <v>66.424608959221985</v>
       </c>
       <c r="AM56" s="52">
-        <f>INDEX($F:$R,MATCH($AA56,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="55"/>
         <v>64.217664255853236</v>
       </c>
       <c r="AN56" s="52">
-        <f>INDEX($F:$R,MATCH($AA56,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="55"/>
         <v>73.027337033880983</v>
       </c>
       <c r="AO56" s="52">
-        <f>INDEX($F:$R,MATCH($AA56,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="55"/>
         <v>61.439737374658449</v>
       </c>
       <c r="AP56" s="52">
-        <f>INDEX($F:$R,MATCH($AA56,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="55"/>
         <v>61.439737374658449</v>
       </c>
     </row>
@@ -26725,12 +26731,12 @@
         <v>9</v>
       </c>
       <c r="C57" s="61">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>21</v>
       </c>
       <c r="D57" s="61">
-        <f t="shared" si="3"/>
-        <v>36</v>
+        <f t="shared" si="5"/>
+        <v>35</v>
       </c>
       <c r="E57" s="60" t="s">
         <v>69</v>
@@ -26739,7 +26745,7 @@
         <v>22</v>
       </c>
       <c r="G57" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Galit-2018</v>
       </c>
       <c r="H57" s="50">
@@ -26776,14 +26782,14 @@
         <v>67.78880616063816</v>
       </c>
       <c r="S57" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="53"/>
         <v>-0.19646761502875809</v>
       </c>
       <c r="T57" s="60">
         <v>7.1111111111111098</v>
       </c>
       <c r="U57" s="60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="54"/>
         <v>0.54700854700854695</v>
       </c>
       <c r="V57" s="60">
@@ -26793,66 +26799,66 @@
         <v>6</v>
       </c>
       <c r="X57" s="60" t="str">
-        <f>IF(W57=MAX($W$39:$W$48),-1,IF(W57=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA57" s="52">
         <v>55</v>
       </c>
       <c r="AC57" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA57,$D:$D,0),2)</f>
+        <f t="shared" si="30"/>
         <v>Fortune Favors The Bold</v>
       </c>
       <c r="AD57" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA57,$D:$D,0),4)</f>
+        <f t="shared" si="31"/>
         <v>Will-2016</v>
       </c>
       <c r="AE57" s="52">
-        <f>INDEX(S:S,MATCH(AA57,D:D,0))</f>
+        <f t="shared" si="32"/>
         <v>-1.8711132274081812</v>
       </c>
       <c r="AF57" s="52">
-        <f>INDEX($F:$R,MATCH($AA57,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="55"/>
         <v>47.297542068278773</v>
       </c>
       <c r="AG57" s="52">
-        <f>INDEX($F:$R,MATCH($AA57,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="55"/>
         <v>49.051975747043642</v>
       </c>
       <c r="AH57" s="52">
-        <f>INDEX($F:$R,MATCH($AA57,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="55"/>
         <v>58.987105984594621</v>
       </c>
       <c r="AI57" s="52">
-        <f>INDEX($F:$R,MATCH($AA57,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="55"/>
         <v>49.258588130913971</v>
       </c>
       <c r="AJ57" s="52">
-        <f>INDEX($F:$R,MATCH($AA57,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="55"/>
         <v>63.529769944495797</v>
       </c>
       <c r="AK57" s="52">
-        <f>INDEX($F:$R,MATCH($AA57,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="55"/>
         <v>64.226303056688849</v>
       </c>
       <c r="AL57" s="52">
-        <f>INDEX($F:$R,MATCH($AA57,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="55"/>
         <v>57.551811375181074</v>
       </c>
       <c r="AM57" s="52">
-        <f>INDEX($F:$R,MATCH($AA57,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="55"/>
         <v>50.846616067208004</v>
       </c>
       <c r="AN57" s="52">
-        <f>INDEX($F:$R,MATCH($AA57,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="55"/>
         <v>57.197979808817195</v>
       </c>
       <c r="AO57" s="52">
-        <f>INDEX($F:$R,MATCH($AA57,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="55"/>
         <v>48.430272106307008</v>
       </c>
       <c r="AP57" s="52">
-        <f>INDEX($F:$R,MATCH($AA57,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="55"/>
         <v>59.976975175270852</v>
       </c>
     </row>
@@ -26864,7 +26870,7 @@
         <v>10</v>
       </c>
       <c r="C58" s="61">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>54</v>
       </c>
       <c r="D58" s="61">
@@ -26878,7 +26884,7 @@
         <v>23</v>
       </c>
       <c r="G58" s="60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>Ally-2018</v>
       </c>
       <c r="H58" s="50">
@@ -26915,14 +26921,14 @@
         <v>47.43681665370849</v>
       </c>
       <c r="S58" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="53"/>
         <v>-2.2071627517784389</v>
       </c>
       <c r="T58" s="60">
         <v>3.8888888888888897</v>
       </c>
       <c r="U58" s="60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="54"/>
         <v>0.29914529914529919</v>
       </c>
       <c r="V58" s="60">
@@ -26932,66 +26938,66 @@
         <v>8</v>
       </c>
       <c r="X58" s="60" t="str">
-        <f>IF(W58=MAX($W$39:$W$48),-1,IF(W58=1,1,""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA58" s="52">
         <v>56</v>
       </c>
       <c r="AC58" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA58,$D:$D,0),2)</f>
+        <f t="shared" si="30"/>
         <v>Fly Iggles Fly</v>
       </c>
       <c r="AD58" s="52" t="str">
-        <f>INDEX($D:$R,MATCH($AA58,$D:$D,0),4)</f>
+        <f t="shared" si="31"/>
         <v>Ally-2018</v>
       </c>
       <c r="AE58" s="52">
-        <f>INDEX(S:S,MATCH(AA58,D:D,0))</f>
+        <f t="shared" si="32"/>
         <v>-2.2071627517784389</v>
       </c>
       <c r="AF58" s="52">
-        <f>INDEX($F:$R,MATCH($AA58,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="55"/>
         <v>55.259444006496238</v>
       </c>
       <c r="AG58" s="52">
-        <f>INDEX($F:$R,MATCH($AA58,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="55"/>
         <v>67.931395348355153</v>
       </c>
       <c r="AH58" s="52">
-        <f>INDEX($F:$R,MATCH($AA58,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="55"/>
         <v>75.515391305328066</v>
       </c>
       <c r="AI58" s="52">
-        <f>INDEX($F:$R,MATCH($AA58,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="55"/>
         <v>78.113809669940707</v>
       </c>
       <c r="AJ58" s="52">
-        <f>INDEX($F:$R,MATCH($AA58,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="55"/>
         <v>78.973386349170696</v>
       </c>
       <c r="AK58" s="52">
-        <f>INDEX($F:$R,MATCH($AA58,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="55"/>
         <v>78.753072429577642</v>
       </c>
       <c r="AL58" s="52">
-        <f>INDEX($F:$R,MATCH($AA58,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="55"/>
         <v>67.494333666442131</v>
       </c>
       <c r="AM58" s="52">
-        <f>INDEX($F:$R,MATCH($AA58,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="55"/>
         <v>68.67551224427703</v>
       </c>
       <c r="AN58" s="52">
-        <f>INDEX($F:$R,MATCH($AA58,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="55"/>
         <v>51.471868935927048</v>
       </c>
       <c r="AO58" s="52">
-        <f>INDEX($F:$R,MATCH($AA58,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="55"/>
         <v>52.751112726611083</v>
       </c>
       <c r="AP58" s="52">
-        <f>INDEX($F:$R,MATCH($AA58,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="55"/>
         <v>47.43681665370849</v>
       </c>
     </row>
